--- a/AAPL_CSCO.xlsx
+++ b/AAPL_CSCO.xlsx
@@ -561,16 +561,16 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
-        <v>172.5943152816695</v>
+        <v>172.5943000962397</v>
       </c>
       <c r="B6">
-        <v>173.9839574554495</v>
+        <v>173.9839421477543</v>
       </c>
       <c r="C6">
-        <v>171.4726657904275</v>
+        <v>171.4726507036841</v>
       </c>
       <c r="D6">
-        <v>173.4281005859375</v>
+        <v>173.4280853271484</v>
       </c>
       <c r="E6">
         <v>80546200</v>
@@ -648,16 +648,16 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <v>177.2297825205121</v>
+        <v>177.2297671947723</v>
       </c>
       <c r="B9">
-        <v>178.281942327686</v>
+        <v>178.2819269109619</v>
       </c>
       <c r="C9">
-        <v>175.3934555880916</v>
+        <v>175.3934404211461</v>
       </c>
       <c r="D9">
-        <v>176.4555511474609</v>
+        <v>176.4555358886719</v>
       </c>
       <c r="E9">
         <v>92633200</v>
@@ -677,16 +677,16 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <v>176.5250213574513</v>
+        <v>176.5250058163999</v>
       </c>
       <c r="B10">
-        <v>176.7136188929769</v>
+        <v>176.7136033353216</v>
       </c>
       <c r="C10">
-        <v>173.1104547979402</v>
+        <v>173.1104395575032</v>
       </c>
       <c r="D10">
-        <v>173.3189086914062</v>
+        <v>173.3188934326172</v>
       </c>
       <c r="E10">
         <v>103049300</v>
@@ -706,16 +706,16 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <v>172.7431897459738</v>
+        <v>172.7431745116953</v>
       </c>
       <c r="B11">
-        <v>173.5869107518622</v>
+        <v>173.5868954431757</v>
       </c>
       <c r="C11">
-        <v>170.6686472159672</v>
+        <v>170.6686321646434</v>
       </c>
       <c r="D11">
-        <v>173.0211181640625</v>
+        <v>173.0211029052734</v>
       </c>
       <c r="E11">
         <v>78751300</v>
@@ -764,16 +764,16 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
-        <v>176.1875244710675</v>
+        <v>176.187539942535</v>
       </c>
       <c r="B13">
-        <v>176.9816121175944</v>
+        <v>176.9816276587927</v>
       </c>
       <c r="C13">
-        <v>173.1302968768147</v>
+        <v>173.1303120798194</v>
       </c>
       <c r="D13">
-        <v>173.7655639648438</v>
+        <v>173.7655792236328</v>
       </c>
       <c r="E13">
         <v>73401800</v>
@@ -793,16 +793,16 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
-        <v>171.0855586909587</v>
+        <v>171.0855433851049</v>
       </c>
       <c r="B14">
-        <v>172.3461724628574</v>
+        <v>172.3461570442251</v>
       </c>
       <c r="C14">
-        <v>168.872051708054</v>
+        <v>168.8720366002275</v>
       </c>
       <c r="D14">
-        <v>170.5594787597656</v>
+        <v>170.5594635009766</v>
       </c>
       <c r="E14">
         <v>89058800</v>
@@ -822,16 +822,16 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
-        <v>169.894407566753</v>
+        <v>169.8944227386736</v>
       </c>
       <c r="B15">
-        <v>172.0781372359118</v>
+        <v>172.0781526028439</v>
       </c>
       <c r="C15">
-        <v>168.594096428816</v>
+        <v>168.5941114846161</v>
       </c>
       <c r="D15">
-        <v>170.8671569824219</v>
+        <v>170.8671722412109</v>
       </c>
       <c r="E15">
         <v>77594700</v>
@@ -880,16 +880,16 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
-        <v>167.4625494744485</v>
+        <v>167.4625339431641</v>
       </c>
       <c r="B17">
-        <v>167.7801754892429</v>
+        <v>167.7801599285002</v>
       </c>
       <c r="C17">
-        <v>164.2762778441831</v>
+        <v>164.2762626084088</v>
       </c>
       <c r="D17">
-        <v>164.5244293212891</v>
+        <v>164.5244140625</v>
       </c>
       <c r="E17">
         <v>72246700</v>
@@ -938,16 +938,16 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19">
-        <v>166.1522917667188</v>
+        <v>166.1522767774654</v>
       </c>
       <c r="B19">
-        <v>169.7752970421039</v>
+        <v>169.7752817260049</v>
       </c>
       <c r="C19">
-        <v>165.5368809896085</v>
+        <v>165.5368660558737</v>
       </c>
       <c r="D19">
-        <v>169.1400299072266</v>
+        <v>169.1400146484375</v>
       </c>
       <c r="E19">
         <v>70618900</v>
@@ -967,16 +967,16 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20">
-        <v>169.3584009204109</v>
+        <v>169.3584166712405</v>
       </c>
       <c r="B20">
-        <v>170.0036037938791</v>
+        <v>170.0036196047145</v>
       </c>
       <c r="C20">
-        <v>163.8196586024821</v>
+        <v>163.8196738381923</v>
       </c>
       <c r="D20">
-        <v>164.0678100585938</v>
+        <v>164.0678253173828</v>
       </c>
       <c r="E20">
         <v>75329400</v>
@@ -996,16 +996,16 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21">
-        <v>162.7079358066061</v>
+        <v>162.7079509590903</v>
       </c>
       <c r="B21">
-        <v>165.36812714293</v>
+        <v>165.3681425431495</v>
       </c>
       <c r="C21">
-        <v>162.3605328750981</v>
+        <v>162.3605479952298</v>
       </c>
       <c r="D21">
-        <v>163.8494415283203</v>
+        <v>163.8494567871094</v>
       </c>
       <c r="E21">
         <v>69023900</v>
@@ -1025,16 +1025,16 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22">
-        <v>163.7998094789184</v>
+        <v>163.7998245207674</v>
       </c>
       <c r="B22">
-        <v>166.5791086823111</v>
+        <v>166.5791239793851</v>
       </c>
       <c r="C22">
-        <v>162.6980164611648</v>
+        <v>162.6980314018354</v>
       </c>
       <c r="D22">
-        <v>166.1622009277344</v>
+        <v>166.1622161865234</v>
       </c>
       <c r="E22">
         <v>67723800</v>
@@ -1054,16 +1054,16 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23">
-        <v>167.5121549513372</v>
+        <v>167.5121395529444</v>
       </c>
       <c r="B23">
-        <v>167.6312779505712</v>
+        <v>167.6312625412281</v>
       </c>
       <c r="C23">
-        <v>164.8718349460667</v>
+        <v>164.8718197903827</v>
       </c>
       <c r="D23">
-        <v>165.9934692382812</v>
+        <v>165.9934539794922</v>
       </c>
       <c r="E23">
         <v>67929800</v>
@@ -1141,16 +1141,16 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26">
-        <v>159.9286328567397</v>
+        <v>159.928647950649</v>
       </c>
       <c r="B26">
-        <v>161.9634776640605</v>
+        <v>161.9634929500165</v>
       </c>
       <c r="C26">
-        <v>157.2883130848306</v>
+        <v>157.2883279295491</v>
       </c>
       <c r="D26">
-        <v>161.6756286621094</v>
+        <v>161.6756439208984</v>
       </c>
       <c r="E26">
         <v>96046400</v>
@@ -1170,16 +1170,16 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27">
-        <v>161.0503089223529</v>
+        <v>161.0502931332045</v>
       </c>
       <c r="B27">
-        <v>161.1396398192353</v>
+        <v>161.139624021329</v>
       </c>
       <c r="C27">
-        <v>155.561199450883</v>
+        <v>155.5611841998792</v>
       </c>
       <c r="D27">
-        <v>155.6406097412109</v>
+        <v>155.6405944824219</v>
       </c>
       <c r="E27">
         <v>95623200</v>
@@ -1199,16 +1199,16 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28">
-        <v>154.7571690380746</v>
+        <v>154.7571842325419</v>
       </c>
       <c r="B28">
-        <v>158.6084691215015</v>
+        <v>158.6084846940996</v>
       </c>
       <c r="C28">
-        <v>154.2310891923235</v>
+        <v>154.2311043351389</v>
       </c>
       <c r="D28">
-        <v>155.4122924804688</v>
+        <v>155.4123077392578</v>
       </c>
       <c r="E28">
         <v>88063200</v>
@@ -1286,16 +1286,16 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31">
-        <v>155.5512502863905</v>
+        <v>155.5512654244307</v>
       </c>
       <c r="B31">
-        <v>157.0600000877349</v>
+        <v>157.0600153726047</v>
       </c>
       <c r="C31">
-        <v>152.1366841589957</v>
+        <v>152.1366989647349</v>
       </c>
       <c r="D31">
-        <v>156.7920074462891</v>
+        <v>156.7920227050781</v>
       </c>
       <c r="E31">
         <v>123055300</v>
@@ -1344,16 +1344,16 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33">
-        <v>158.4893812097887</v>
+        <v>158.4893518594603</v>
       </c>
       <c r="B33">
-        <v>165.249024921688</v>
+        <v>165.2489943195549</v>
       </c>
       <c r="C33">
-        <v>158.0824091583911</v>
+        <v>158.082379883429</v>
       </c>
       <c r="D33">
-        <v>164.7924346923828</v>
+        <v>164.7924041748047</v>
       </c>
       <c r="E33">
         <v>108256500</v>
@@ -1373,16 +1373,16 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34">
-        <v>162.6384599285565</v>
+        <v>162.6384758764586</v>
       </c>
       <c r="B34">
-        <v>162.8667550126193</v>
+        <v>162.8667709829075</v>
       </c>
       <c r="C34">
-        <v>153.8042595718641</v>
+        <v>153.8042746535076</v>
       </c>
       <c r="D34">
-        <v>155.6108093261719</v>
+        <v>155.6108245849609</v>
       </c>
       <c r="E34">
         <v>130525300</v>
@@ -1402,16 +1402,16 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35">
-        <v>155.0839544736725</v>
+        <v>155.08396960925</v>
       </c>
       <c r="B35">
-        <v>158.4936026571159</v>
+        <v>158.4936181254614</v>
       </c>
       <c r="C35">
-        <v>153.2648151194847</v>
+        <v>153.2648300775213</v>
       </c>
       <c r="D35">
-        <v>156.3464202880859</v>
+        <v>156.346435546875</v>
       </c>
       <c r="E35">
         <v>116124600</v>
@@ -1460,16 +1460,16 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37">
-        <v>154.5968796112018</v>
+        <v>154.5968642526682</v>
       </c>
       <c r="B37">
-        <v>155.8096392347942</v>
+        <v>155.8096237557782</v>
       </c>
       <c r="C37">
-        <v>152.0222416224964</v>
+        <v>152.022226519742</v>
       </c>
       <c r="D37">
-        <v>153.5928649902344</v>
+        <v>153.5928497314453</v>
       </c>
       <c r="E37">
         <v>115366700</v>
@@ -1547,16 +1547,16 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40">
-        <v>143.7317548409307</v>
+        <v>143.7317248461208</v>
       </c>
       <c r="B40">
-        <v>147.2209302742236</v>
+        <v>147.2208995512715</v>
       </c>
       <c r="C40">
-        <v>142.2605439102716</v>
+        <v>142.2605142224828</v>
       </c>
       <c r="D40">
-        <v>146.2368011474609</v>
+        <v>146.2367706298828</v>
       </c>
       <c r="E40">
         <v>113990900</v>
@@ -1605,16 +1605,16 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42">
-        <v>147.976407219293</v>
+        <v>147.9763919993568</v>
       </c>
       <c r="B42">
-        <v>148.8810093415771</v>
+        <v>148.8809940285992</v>
       </c>
       <c r="C42">
-        <v>145.8093392322945</v>
+        <v>145.8093242352495</v>
       </c>
       <c r="D42">
-        <v>148.3541564941406</v>
+        <v>148.3541412353516</v>
       </c>
       <c r="E42">
         <v>78336300</v>
@@ -1634,16 +1634,16 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43">
-        <v>145.9783528097602</v>
+        <v>145.9783368975804</v>
       </c>
       <c r="B43">
-        <v>146.4853201570918</v>
+        <v>146.4853041896508</v>
       </c>
       <c r="C43">
-        <v>139.0695935872717</v>
+        <v>139.0695784281723</v>
       </c>
       <c r="D43">
-        <v>139.9841461181641</v>
+        <v>139.984130859375</v>
       </c>
       <c r="E43">
         <v>109742900</v>
@@ -1692,16 +1692,16 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45">
-        <v>138.264381160592</v>
+        <v>138.2643965857317</v>
       </c>
       <c r="B45">
-        <v>139.8648250740252</v>
+        <v>139.8648406777147</v>
       </c>
       <c r="C45">
-        <v>131.8228496142474</v>
+        <v>131.8228643207529</v>
       </c>
       <c r="D45">
-        <v>136.7732849121094</v>
+        <v>136.7733001708984</v>
       </c>
       <c r="E45">
         <v>137426100</v>
@@ -1721,16 +1721,16 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46">
-        <v>136.9720850371612</v>
+        <v>136.9721144202711</v>
       </c>
       <c r="B46">
-        <v>142.4096168526949</v>
+        <v>142.4096474022585</v>
       </c>
       <c r="C46">
-        <v>136.8329166705276</v>
+        <v>136.8329460237833</v>
       </c>
       <c r="D46">
-        <v>142.2605133056641</v>
+        <v>142.2605438232422</v>
       </c>
       <c r="E46">
         <v>117726300</v>
@@ -1750,16 +1750,16 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47">
-        <v>139.9741660294204</v>
+        <v>139.9741813371294</v>
       </c>
       <c r="B47">
-        <v>141.1272840466781</v>
+        <v>141.1272994804933</v>
       </c>
       <c r="C47">
-        <v>136.5148271458619</v>
+        <v>136.5148420752543</v>
       </c>
       <c r="D47">
-        <v>139.5268402099609</v>
+        <v>139.52685546875</v>
       </c>
       <c r="E47">
         <v>104132700</v>
@@ -1779,16 +1779,16 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48">
-        <v>137.6082922373757</v>
+        <v>137.6083223010534</v>
       </c>
       <c r="B48">
-        <v>140.9483483695026</v>
+        <v>140.9483791628919</v>
       </c>
       <c r="C48">
-        <v>137.5188301047456</v>
+        <v>137.5188601488782</v>
       </c>
       <c r="D48">
-        <v>139.6858978271484</v>
+        <v>139.6859283447266</v>
       </c>
       <c r="E48">
         <v>92482700</v>
@@ -1808,16 +1808,16 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49">
-        <v>136.5744893731774</v>
+        <v>136.5744747925331</v>
       </c>
       <c r="B49">
-        <v>143.4832330122202</v>
+        <v>143.4832176940008</v>
       </c>
       <c r="C49">
-        <v>136.3259733058146</v>
+        <v>136.3259587517018</v>
       </c>
       <c r="D49">
-        <v>142.9265594482422</v>
+        <v>142.9265441894531</v>
       </c>
       <c r="E49">
         <v>90601500</v>
@@ -1895,16 +1895,16 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52">
-        <v>149.0102093585681</v>
+        <v>149.010224739459</v>
       </c>
       <c r="B52">
-        <v>150.8392989143207</v>
+        <v>150.8393144840109</v>
       </c>
       <c r="C52">
-        <v>146.8033857418728</v>
+        <v>146.8034008949745</v>
       </c>
       <c r="D52">
-        <v>147.8272857666016</v>
+        <v>147.8273010253906</v>
       </c>
       <c r="E52">
         <v>74286600</v>
@@ -1953,16 +1953,16 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54">
-        <v>146.0280260003099</v>
+        <v>146.0280105819859</v>
       </c>
       <c r="B54">
-        <v>147.0916819829755</v>
+        <v>147.0916664523457</v>
       </c>
       <c r="C54">
-        <v>143.6025220755465</v>
+        <v>143.6025069133185</v>
       </c>
       <c r="D54">
-        <v>144.5170593261719</v>
+        <v>144.5170440673828</v>
       </c>
       <c r="E54">
         <v>88570300</v>
@@ -2011,16 +2011,16 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56">
-        <v>143.4931654850449</v>
+        <v>143.4931802964644</v>
       </c>
       <c r="B56">
-        <v>148.1155576948117</v>
+        <v>148.1155729833563</v>
       </c>
       <c r="C56">
-        <v>143.2446494486442</v>
+        <v>143.2446642344118</v>
       </c>
       <c r="D56">
-        <v>147.8272857666016</v>
+        <v>147.8273010253906</v>
       </c>
       <c r="E56">
         <v>67808200</v>
@@ -2040,16 +2040,16 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57">
-        <v>147.6980715875823</v>
+        <v>147.6980562648546</v>
       </c>
       <c r="B57">
-        <v>148.9804078264753</v>
+        <v>148.9803923707134</v>
       </c>
       <c r="C57">
-        <v>146.5847244550106</v>
+        <v>146.5847092477855</v>
       </c>
       <c r="D57">
-        <v>147.0817565917969</v>
+        <v>147.0817413330078</v>
       </c>
       <c r="E57">
         <v>53950200</v>
@@ -2098,16 +2098,16 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59">
-        <v>139.4473208552486</v>
+        <v>139.4473364645451</v>
       </c>
       <c r="B59">
-        <v>139.9244674107785</v>
+        <v>139.9244830734854</v>
       </c>
       <c r="C59">
-        <v>136.2464330074797</v>
+        <v>136.2464482584789</v>
       </c>
       <c r="D59">
-        <v>136.3160247802734</v>
+        <v>136.3160400390625</v>
       </c>
       <c r="E59">
         <v>91437900</v>
@@ -2127,16 +2127,16 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60">
-        <v>132.0812970154075</v>
+        <v>132.0813123887405</v>
       </c>
       <c r="B60">
-        <v>134.3974682745586</v>
+        <v>134.3974839174776</v>
       </c>
       <c r="C60">
-        <v>130.6597925803909</v>
+        <v>130.6598077882707</v>
       </c>
       <c r="D60">
-        <v>131.0971832275391</v>
+        <v>131.0971984863281</v>
       </c>
       <c r="E60">
         <v>122207100</v>
@@ -2243,16 +2243,16 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64">
-        <v>129.297922220995</v>
+        <v>129.2979373069698</v>
       </c>
       <c r="B64">
-        <v>132.2900496425027</v>
+        <v>132.2900650775872</v>
       </c>
       <c r="C64">
-        <v>129.0394558524287</v>
+        <v>129.0394709082467</v>
       </c>
       <c r="D64">
-        <v>130.7790679931641</v>
+        <v>130.7790832519531</v>
       </c>
       <c r="E64">
         <v>134520300</v>
@@ -2272,16 +2272,16 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65">
-        <v>132.6280676436369</v>
+        <v>132.6280376763494</v>
       </c>
       <c r="B65">
-        <v>136.2464613769495</v>
+        <v>136.2464305920865</v>
       </c>
       <c r="C65">
-        <v>132.5286703066549</v>
+        <v>132.5286403618261</v>
       </c>
       <c r="D65">
-        <v>135.0635223388672</v>
+        <v>135.0634918212891</v>
       </c>
       <c r="E65">
         <v>81000500</v>
@@ -2301,16 +2301,16 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66">
-        <v>133.9899268242723</v>
+        <v>133.9899116286168</v>
       </c>
       <c r="B66">
-        <v>136.942299151981</v>
+        <v>136.9422836215</v>
       </c>
       <c r="C66">
-        <v>133.1151605122159</v>
+        <v>133.1151454157666</v>
       </c>
       <c r="D66">
-        <v>134.5466156005859</v>
+        <v>134.5466003417969</v>
       </c>
       <c r="E66">
         <v>73409200</v>
@@ -2446,16 +2446,16 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71">
-        <v>136.6440665465985</v>
+        <v>136.6440816114071</v>
       </c>
       <c r="B71">
-        <v>139.8350040162491</v>
+        <v>139.835019432854</v>
       </c>
       <c r="C71">
-        <v>135.8587473634749</v>
+        <v>135.8587623417033</v>
       </c>
       <c r="D71">
-        <v>138.4035491943359</v>
+        <v>138.403564453125</v>
       </c>
       <c r="E71">
         <v>66242400</v>
@@ -2649,16 +2649,16 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78">
-        <v>144.8053251668167</v>
+        <v>144.8053405098681</v>
       </c>
       <c r="B78">
-        <v>145.7695686207998</v>
+        <v>145.7695840660189</v>
       </c>
       <c r="C78">
-        <v>142.9265445007683</v>
+        <v>142.9265596447508</v>
       </c>
       <c r="D78">
-        <v>144.0100708007812</v>
+        <v>144.0100860595703</v>
       </c>
       <c r="E78">
         <v>63141600</v>
@@ -2794,16 +2794,16 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83">
-        <v>149.8452350862829</v>
+        <v>149.8452507258412</v>
       </c>
       <c r="B83">
-        <v>150.6703101490676</v>
+        <v>150.6703258747401</v>
       </c>
       <c r="C83">
-        <v>145.8292074353362</v>
+        <v>145.829222655736</v>
       </c>
       <c r="D83">
-        <v>146.197021484375</v>
+        <v>146.1970367431641</v>
       </c>
       <c r="E83">
         <v>81420900</v>
@@ -2823,16 +2823,16 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84">
-        <v>147.0419641343232</v>
+        <v>147.0419790818732</v>
       </c>
       <c r="B84">
-        <v>150.3323139742384</v>
+        <v>150.3323292562689</v>
       </c>
       <c r="C84">
-        <v>146.0379648246395</v>
+        <v>146.037979670128</v>
       </c>
       <c r="D84">
-        <v>150.1036834716797</v>
+        <v>150.1036987304688</v>
       </c>
       <c r="E84">
         <v>82982400</v>
@@ -2852,16 +2852,16 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85">
-        <v>150.2229901861665</v>
+        <v>150.22297511881</v>
       </c>
       <c r="B85">
-        <v>152.8075633994565</v>
+        <v>152.8075480728675</v>
       </c>
       <c r="C85">
-        <v>149.4774419709733</v>
+        <v>149.4774269783953</v>
       </c>
       <c r="D85">
-        <v>152.131591796875</v>
+        <v>152.1315765380859</v>
       </c>
       <c r="E85">
         <v>64823400</v>
@@ -2939,16 +2939,16 @@
     </row>
     <row r="88" spans="1:9">
       <c r="A88">
-        <v>153.0958352328922</v>
+        <v>153.0958198683543</v>
       </c>
       <c r="B88">
-        <v>154.1197202340589</v>
+        <v>154.119704766765</v>
       </c>
       <c r="C88">
-        <v>151.376108265139</v>
+        <v>151.3760930731911</v>
       </c>
       <c r="D88">
-        <v>152.0421295166016</v>
+        <v>152.0421142578125</v>
       </c>
       <c r="E88">
         <v>53623900</v>
@@ -2968,16 +2968,16 @@
     </row>
     <row r="89" spans="1:9">
       <c r="A89">
-        <v>151.3562357523016</v>
+        <v>151.3562051018657</v>
       </c>
       <c r="B89">
-        <v>152.1813110008779</v>
+        <v>152.1812801833599</v>
       </c>
       <c r="C89">
-        <v>149.9049102640347</v>
+        <v>149.9048799074998</v>
       </c>
       <c r="D89">
-        <v>150.7001647949219</v>
+        <v>150.7001342773438</v>
       </c>
       <c r="E89">
         <v>55138700</v>
@@ -2997,16 +2997,16 @@
     </row>
     <row r="90" spans="1:9">
       <c r="A90">
-        <v>151.6743271678687</v>
+        <v>151.6743123187957</v>
       </c>
       <c r="B90">
-        <v>156.3961324202052</v>
+        <v>156.3961171088625</v>
       </c>
       <c r="C90">
-        <v>151.2568219973219</v>
+        <v>151.256807189123</v>
       </c>
       <c r="D90">
-        <v>155.8593292236328</v>
+        <v>155.8593139648438</v>
       </c>
       <c r="E90">
         <v>78620700</v>
@@ -3055,16 +3055,16 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92">
-        <v>160.2829289323435</v>
+        <v>160.2829137927994</v>
       </c>
       <c r="B92">
-        <v>162.6587419394673</v>
+        <v>162.6587265755155</v>
       </c>
       <c r="C92">
-        <v>158.553251635759</v>
+        <v>158.5532366595917</v>
       </c>
       <c r="D92">
-        <v>161.5453796386719</v>
+        <v>161.5453643798828</v>
       </c>
       <c r="E92">
         <v>101786900</v>
@@ -3084,16 +3084,16 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93">
-        <v>160.0542831710059</v>
+        <v>160.0542679594548</v>
       </c>
       <c r="B93">
-        <v>162.6189708161062</v>
+        <v>162.6189553608072</v>
       </c>
       <c r="C93">
-        <v>159.9350003120487</v>
+        <v>159.9349851118342</v>
       </c>
       <c r="D93">
-        <v>160.5513153076172</v>
+        <v>160.5513000488281</v>
       </c>
       <c r="E93">
         <v>67829400</v>
@@ -3113,16 +3113,16 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94">
-        <v>159.149688489735</v>
+        <v>159.1496732223623</v>
       </c>
       <c r="B94">
-        <v>161.4459744225696</v>
+        <v>161.4459589349122</v>
       </c>
       <c r="C94">
-        <v>158.6824770905278</v>
+        <v>158.6824618679752</v>
       </c>
       <c r="D94">
-        <v>159.0602111816406</v>
+        <v>159.0601959228516</v>
       </c>
       <c r="E94">
         <v>59907000</v>
@@ -3345,16 +3345,16 @@
     </row>
     <row r="102" spans="1:9">
       <c r="A102">
-        <v>169.0464724936373</v>
+        <v>169.0464875502763</v>
       </c>
       <c r="B102">
-        <v>171.3857590650653</v>
+        <v>171.3857743300601</v>
       </c>
       <c r="C102">
-        <v>168.6283722386838</v>
+        <v>168.6283872580834</v>
       </c>
       <c r="D102">
-        <v>171.3160858154297</v>
+        <v>171.3161010742188</v>
       </c>
       <c r="E102">
         <v>68039400</v>
@@ -3374,16 +3374,16 @@
     </row>
     <row r="103" spans="1:9">
       <c r="A103">
-        <v>170.7387165976496</v>
+        <v>170.7387317093045</v>
       </c>
       <c r="B103">
-        <v>172.6001937338399</v>
+        <v>172.6002090102496</v>
       </c>
       <c r="C103">
-        <v>170.5694927842944</v>
+        <v>170.5695078809719</v>
       </c>
       <c r="D103">
-        <v>172.4011077880859</v>
+        <v>172.401123046875</v>
       </c>
       <c r="E103">
         <v>54091700</v>
@@ -3548,16 +3548,16 @@
     </row>
     <row r="109" spans="1:9">
       <c r="A109">
-        <v>166.3189510457003</v>
+        <v>166.3189662908033</v>
       </c>
       <c r="B109">
-        <v>167.9415312428377</v>
+        <v>167.9415466366694</v>
       </c>
       <c r="C109">
-        <v>165.8909018008159</v>
+        <v>165.8909170066831</v>
       </c>
       <c r="D109">
-        <v>166.46826171875</v>
+        <v>166.4682769775391</v>
       </c>
       <c r="E109">
         <v>54147100</v>
@@ -3606,16 +3606,16 @@
     </row>
     <row r="111" spans="1:9">
       <c r="A111">
-        <v>168.0112022001409</v>
+        <v>168.0112173467528</v>
       </c>
       <c r="B111">
-        <v>169.3650079780215</v>
+        <v>169.3650232466822</v>
       </c>
       <c r="C111">
-        <v>167.5831681503852</v>
+        <v>167.5831832584088</v>
       </c>
       <c r="D111">
-        <v>169.2555084228516</v>
+        <v>169.2555236816406</v>
       </c>
       <c r="E111">
         <v>51218200</v>
@@ -3635,16 +3635,16 @@
     </row>
     <row r="112" spans="1:9">
       <c r="A112">
-        <v>169.7930651561933</v>
+        <v>169.7930492492636</v>
       </c>
       <c r="B112">
-        <v>170.2708745150557</v>
+        <v>170.2708585633628</v>
       </c>
       <c r="C112">
-        <v>162.8149858118107</v>
+        <v>162.8149705586169</v>
       </c>
       <c r="D112">
-        <v>162.8747100830078</v>
+        <v>162.8746948242188</v>
       </c>
       <c r="E112">
         <v>78961000</v>
@@ -3664,16 +3664,16 @@
     </row>
     <row r="113" spans="1:9">
       <c r="A113">
-        <v>160.4159494423361</v>
+        <v>160.4159646793772</v>
       </c>
       <c r="B113">
-        <v>162.1579781246606</v>
+        <v>162.1579935271675</v>
       </c>
       <c r="C113">
-        <v>159.09202101034</v>
+        <v>159.0920361216283</v>
       </c>
       <c r="D113">
-        <v>160.6449127197266</v>
+        <v>160.6449279785156</v>
       </c>
       <c r="E113">
         <v>73314000</v>
@@ -3722,16 +3722,16 @@
     </row>
     <row r="115" spans="1:9">
       <c r="A115">
-        <v>159.579797365319</v>
+        <v>159.5797818066342</v>
       </c>
       <c r="B115">
-        <v>159.84857178827</v>
+        <v>159.8485562033803</v>
       </c>
       <c r="C115">
-        <v>156.4242383037962</v>
+        <v>156.4242230527716</v>
       </c>
       <c r="D115">
-        <v>156.5038757324219</v>
+        <v>156.5038604736328</v>
       </c>
       <c r="E115">
         <v>87991100</v>
@@ -3780,16 +3780,16 @@
     </row>
     <row r="117" spans="1:9">
       <c r="A117">
-        <v>159.0223520795474</v>
+        <v>159.022336434906</v>
       </c>
       <c r="B117">
-        <v>159.6295741880173</v>
+        <v>159.6295584836372</v>
       </c>
       <c r="C117">
-        <v>154.264125795847</v>
+        <v>154.2641106193204</v>
       </c>
       <c r="D117">
-        <v>155.1002960205078</v>
+        <v>155.1002807617188</v>
       </c>
       <c r="E117">
         <v>76957800</v>
@@ -3809,16 +3809,16 @@
     </row>
     <row r="118" spans="1:9">
       <c r="A118">
-        <v>155.757276522486</v>
+        <v>155.7572919728371</v>
       </c>
       <c r="B118">
-        <v>156.3744475466886</v>
+        <v>156.37446305826</v>
       </c>
       <c r="C118">
-        <v>152.9899407059012</v>
+        <v>152.9899558817463</v>
       </c>
       <c r="D118">
-        <v>153.8261108398438</v>
+        <v>153.8261260986328</v>
       </c>
       <c r="E118">
         <v>73714800</v>
@@ -3838,16 +3838,16 @@
     </row>
     <row r="119" spans="1:9">
       <c r="A119">
-        <v>154.1148117673296</v>
+        <v>154.1147966200756</v>
       </c>
       <c r="B119">
-        <v>155.9563760181906</v>
+        <v>155.9563606899375</v>
       </c>
       <c r="C119">
-        <v>152.9103165591985</v>
+        <v>152.9103015303289</v>
       </c>
       <c r="D119">
-        <v>155.2496185302734</v>
+        <v>155.2496032714844</v>
       </c>
       <c r="E119">
         <v>87449600</v>
@@ -3867,16 +3867,16 @@
     </row>
     <row r="120" spans="1:9">
       <c r="A120">
-        <v>153.9356120155937</v>
+        <v>153.9356272921639</v>
       </c>
       <c r="B120">
-        <v>155.6477786065244</v>
+        <v>155.64779405301</v>
       </c>
       <c r="C120">
-        <v>151.9845331598988</v>
+        <v>151.9845482428439</v>
       </c>
       <c r="D120">
-        <v>153.7564392089844</v>
+        <v>153.7564544677734</v>
       </c>
       <c r="E120">
         <v>84923800</v>
@@ -3896,16 +3896,16 @@
     </row>
     <row r="121" spans="1:9">
       <c r="A121">
-        <v>154.76182838562</v>
+        <v>154.7618434601833</v>
       </c>
       <c r="B121">
-        <v>157.1011301058352</v>
+        <v>157.101145408258</v>
       </c>
       <c r="C121">
-        <v>154.0451068028003</v>
+        <v>154.0451218075514</v>
       </c>
       <c r="D121">
-        <v>156.6531677246094</v>
+        <v>156.6531829833984</v>
       </c>
       <c r="E121">
         <v>68028800</v>
@@ -3925,16 +3925,16 @@
     </row>
     <row r="122" spans="1:9">
       <c r="A122">
-        <v>158.8630720422019</v>
+        <v>158.8630571419376</v>
       </c>
       <c r="B122">
-        <v>163.5117986076148</v>
+        <v>163.511783271332</v>
       </c>
       <c r="C122">
-        <v>158.5743996607004</v>
+        <v>158.5743847875116</v>
       </c>
       <c r="D122">
-        <v>162.6855773925781</v>
+        <v>162.6855621337891</v>
       </c>
       <c r="E122">
         <v>104956000</v>
@@ -4012,16 +4012,16 @@
     </row>
     <row r="125" spans="1:9">
       <c r="A125">
-        <v>153.9455779582859</v>
+        <v>153.9455624711709</v>
       </c>
       <c r="B125">
-        <v>154.5329021085457</v>
+        <v>154.5328865623452</v>
       </c>
       <c r="C125">
-        <v>150.6904834319717</v>
+        <v>150.6904682723232</v>
       </c>
       <c r="D125">
-        <v>151.6759643554688</v>
+        <v>151.6759490966797</v>
       </c>
       <c r="E125">
         <v>90481100</v>
@@ -4041,16 +4041,16 @@
     </row>
     <row r="126" spans="1:9">
       <c r="A126">
-        <v>150.5212364465309</v>
+        <v>150.5212517569599</v>
       </c>
       <c r="B126">
-        <v>150.6605981309168</v>
+        <v>150.660613455521</v>
       </c>
       <c r="C126">
-        <v>147.6941612658279</v>
+        <v>147.6941762886978</v>
       </c>
       <c r="D126">
-        <v>150.0135498046875</v>
+        <v>150.0135650634766</v>
       </c>
       <c r="E126">
         <v>162278800</v>
@@ -4215,16 +4215,16 @@
     </row>
     <row r="132" spans="1:9">
       <c r="A132">
-        <v>148.9783073583735</v>
+        <v>148.9782922119229</v>
       </c>
       <c r="B132">
-        <v>153.0695870536117</v>
+        <v>153.0695714912054</v>
       </c>
       <c r="C132">
-        <v>148.9583942047036</v>
+        <v>148.9583790602775</v>
       </c>
       <c r="D132">
-        <v>150.083251953125</v>
+        <v>150.0832366943359</v>
       </c>
       <c r="E132">
         <v>93339400</v>
@@ -4302,16 +4302,16 @@
     </row>
     <row r="135" spans="1:9">
       <c r="A135">
-        <v>145.4345147363727</v>
+        <v>145.4345303828441</v>
       </c>
       <c r="B135">
-        <v>146.0516857510214</v>
+        <v>146.0517014638907</v>
       </c>
       <c r="C135">
-        <v>140.0391896864294</v>
+        <v>140.0392047524485</v>
       </c>
       <c r="D135">
-        <v>141.8309936523438</v>
+        <v>141.8310089111328</v>
       </c>
       <c r="E135">
         <v>128138200</v>
@@ -4331,16 +4331,16 @@
     </row>
     <row r="136" spans="1:9">
       <c r="A136">
-        <v>140.6364680202339</v>
+        <v>140.6364524213791</v>
       </c>
       <c r="B136">
-        <v>142.4481852063937</v>
+        <v>142.4481694065901</v>
       </c>
       <c r="C136">
-        <v>137.371409643842</v>
+        <v>137.3713944071348</v>
       </c>
       <c r="D136">
-        <v>137.5704956054688</v>
+        <v>137.5704803466797</v>
       </c>
       <c r="E136">
         <v>124925300</v>
@@ -4389,16 +4389,16 @@
     </row>
     <row r="138" spans="1:9">
       <c r="A138">
-        <v>144.3693910662706</v>
+        <v>144.3693759192338</v>
       </c>
       <c r="B138">
-        <v>145.5539730788143</v>
+        <v>145.5539578074929</v>
       </c>
       <c r="C138">
-        <v>143.6028941423977</v>
+        <v>143.6028790757808</v>
       </c>
       <c r="D138">
-        <v>145.4345245361328</v>
+        <v>145.4345092773438</v>
       </c>
       <c r="E138">
         <v>87830100</v>
@@ -4505,16 +4505,16 @@
     </row>
     <row r="142" spans="1:9">
       <c r="A142">
-        <v>139.7803955078125</v>
+        <v>139.7803802490234</v>
       </c>
       <c r="B142">
-        <v>141.2437009821484</v>
+        <v>141.2436855636211</v>
       </c>
       <c r="C142">
-        <v>137.9388312339646</v>
+        <v>137.9388161762055</v>
       </c>
       <c r="D142">
-        <v>139.7803955078125</v>
+        <v>139.7803802490234</v>
       </c>
       <c r="E142">
         <v>74899000</v>
@@ -4563,16 +4563,16 @@
     </row>
     <row r="144" spans="1:9">
       <c r="A144">
-        <v>138.4962795077522</v>
+        <v>138.4962641618258</v>
       </c>
       <c r="B144">
-        <v>139.7206727090467</v>
+        <v>139.7206572274528</v>
       </c>
       <c r="C144">
-        <v>137.5306965603606</v>
+        <v>137.5306813214245</v>
       </c>
       <c r="D144">
-        <v>137.7098693847656</v>
+        <v>137.7098541259766</v>
       </c>
       <c r="E144">
         <v>70433700</v>
@@ -4592,16 +4592,16 @@
     </row>
     <row r="145" spans="1:9">
       <c r="A145">
-        <v>134.3751385954436</v>
+        <v>134.3751241903528</v>
       </c>
       <c r="B145">
-        <v>142.9359572831516</v>
+        <v>142.9359419603361</v>
       </c>
       <c r="C145">
-        <v>133.757952308962</v>
+        <v>133.7579379700338</v>
       </c>
       <c r="D145">
-        <v>142.3386993408203</v>
+        <v>142.3386840820312</v>
       </c>
       <c r="E145">
         <v>113224000</v>
@@ -4621,16 +4621,16 @@
     </row>
     <row r="146" spans="1:9">
       <c r="A146">
-        <v>143.6526768489013</v>
+        <v>143.6526609362279</v>
       </c>
       <c r="B146">
-        <v>143.8617269986735</v>
+        <v>143.8617110628433</v>
       </c>
       <c r="C146">
-        <v>137.5605578290168</v>
+        <v>137.5605425911788</v>
       </c>
       <c r="D146">
-        <v>137.7496948242188</v>
+        <v>137.7496795654297</v>
       </c>
       <c r="E146">
         <v>88598000</v>
@@ -4650,16 +4650,16 @@
     </row>
     <row r="147" spans="1:9">
       <c r="A147">
-        <v>140.4274294052463</v>
+        <v>140.4274445204589</v>
       </c>
       <c r="B147">
-        <v>142.2490803363246</v>
+        <v>142.2490956476146</v>
       </c>
       <c r="C147">
-        <v>139.6310703902751</v>
+        <v>139.6310854197698</v>
       </c>
       <c r="D147">
-        <v>141.7613220214844</v>
+        <v>141.7613372802734</v>
       </c>
       <c r="E147">
         <v>85250900</v>
@@ -4679,16 +4679,16 @@
     </row>
     <row r="148" spans="1:9">
       <c r="A148">
-        <v>144.8272945646099</v>
+        <v>144.8273100080973</v>
       </c>
       <c r="B148">
-        <v>146.03177447573</v>
+        <v>146.0317900476556</v>
       </c>
       <c r="C148">
-        <v>139.9695182366475</v>
+        <v>139.9695331621316</v>
       </c>
       <c r="D148">
-        <v>143.09521484375</v>
+        <v>143.0952301025391</v>
       </c>
       <c r="E148">
         <v>99136600</v>
@@ -4708,16 +4708,16 @@
     </row>
     <row r="149" spans="1:9">
       <c r="A149">
-        <v>141.044598183217</v>
+        <v>141.044613211841</v>
       </c>
       <c r="B149">
-        <v>144.2897432701918</v>
+        <v>144.2897586445934</v>
       </c>
       <c r="C149">
-        <v>140.8554612113756</v>
+        <v>140.8554762198466</v>
       </c>
       <c r="D149">
-        <v>143.2047119140625</v>
+        <v>143.2047271728516</v>
       </c>
       <c r="E149">
         <v>61758300</v>
@@ -4737,16 +4737,16 @@
     </row>
     <row r="150" spans="1:9">
       <c r="A150">
-        <v>142.3685523822473</v>
+        <v>142.3685371628312</v>
       </c>
       <c r="B150">
-        <v>145.2254747565447</v>
+        <v>145.2254592317192</v>
       </c>
       <c r="C150">
-        <v>142.0002273925918</v>
+        <v>142.0002122125501</v>
       </c>
       <c r="D150">
-        <v>142.7368621826172</v>
+        <v>142.7368469238281</v>
       </c>
       <c r="E150">
         <v>64522000</v>
@@ -4824,16 +4824,16 @@
     </row>
     <row r="153" spans="1:9">
       <c r="A153">
-        <v>149.4063514300267</v>
+        <v>149.4063363966038</v>
       </c>
       <c r="B153">
-        <v>151.795428783862</v>
+        <v>151.7954135100476</v>
       </c>
       <c r="C153">
-        <v>148.679680759947</v>
+        <v>148.6796657996425</v>
       </c>
       <c r="D153">
-        <v>151.6461029052734</v>
+        <v>151.6460876464844</v>
       </c>
       <c r="E153">
         <v>74732300</v>
@@ -4853,16 +4853,16 @@
     </row>
     <row r="154" spans="1:9">
       <c r="A154">
-        <v>150.272375217099</v>
+        <v>150.2723906403785</v>
       </c>
       <c r="B154">
-        <v>151.2976822928268</v>
+        <v>151.2976978213393</v>
       </c>
       <c r="C154">
-        <v>147.3656626181576</v>
+        <v>147.3656777431053</v>
       </c>
       <c r="D154">
-        <v>148.6697082519531</v>
+        <v>148.6697235107422</v>
       </c>
       <c r="E154">
         <v>88194300</v>
@@ -4940,16 +4940,16 @@
     </row>
     <row r="157" spans="1:9">
       <c r="A157">
-        <v>152.4623677089595</v>
+        <v>152.4623524680814</v>
       </c>
       <c r="B157">
-        <v>153.5374501871231</v>
+        <v>153.5374348387746</v>
       </c>
       <c r="C157">
-        <v>151.2280103771525</v>
+        <v>151.2279952596668</v>
       </c>
       <c r="D157">
-        <v>152.6415405273438</v>
+        <v>152.6415252685547</v>
       </c>
       <c r="E157">
         <v>97943200</v>
@@ -4969,16 +4969,16 @@
     </row>
     <row r="158" spans="1:9">
       <c r="A158">
-        <v>154.3736203689756</v>
+        <v>154.3736046614871</v>
       </c>
       <c r="B158">
-        <v>154.7419301773627</v>
+        <v>154.7419144323989</v>
       </c>
       <c r="C158">
-        <v>148.4507253519562</v>
+        <v>148.4507102471213</v>
       </c>
       <c r="D158">
-        <v>149.9637908935547</v>
+        <v>149.9637756347656</v>
       </c>
       <c r="E158">
         <v>80379300</v>
@@ -5027,16 +5027,16 @@
     </row>
     <row r="160" spans="1:9">
       <c r="A160">
-        <v>141.4129138045907</v>
+        <v>141.4129294127666</v>
       </c>
       <c r="B160">
-        <v>142.1495485703105</v>
+        <v>142.149564259791</v>
       </c>
       <c r="C160">
-        <v>138.1179932957137</v>
+        <v>138.1180085402191</v>
       </c>
       <c r="D160">
-        <v>138.2474060058594</v>
+        <v>138.2474212646484</v>
       </c>
       <c r="E160">
         <v>97918500</v>
@@ -10247,16 +10247,16 @@
     </row>
     <row r="340" spans="1:9">
       <c r="A340">
-        <v>52.10641979509345</v>
+        <v>52.10641596849725</v>
       </c>
       <c r="B340">
-        <v>52.1254823940185</v>
+        <v>52.12547856602239</v>
       </c>
       <c r="C340">
-        <v>51.16284478112677</v>
+        <v>51.16284102382492</v>
       </c>
       <c r="D340">
-        <v>51.94439315795898</v>
+        <v>51.94438934326172</v>
       </c>
       <c r="E340">
         <v>20551500</v>
@@ -10334,16 +10334,16 @@
     </row>
     <row r="343" spans="1:9">
       <c r="A343">
-        <v>53.05952453613281</v>
+        <v>53.05953216552735</v>
       </c>
       <c r="B343">
-        <v>53.66951675530137</v>
+        <v>53.66952447240629</v>
       </c>
       <c r="C343">
-        <v>52.4590690695459</v>
+        <v>52.45907661260133</v>
       </c>
       <c r="D343">
-        <v>53.05952453613281</v>
+        <v>53.05953216552734</v>
       </c>
       <c r="E343">
         <v>20036500</v>
@@ -10363,16 +10363,16 @@
     </row>
     <row r="344" spans="1:9">
       <c r="A344">
-        <v>53.13578304506223</v>
+        <v>53.1357868393419</v>
       </c>
       <c r="B344">
-        <v>54.26998051327264</v>
+        <v>54.26998438854222</v>
       </c>
       <c r="C344">
-        <v>52.98328587592621</v>
+        <v>52.98328965931648</v>
       </c>
       <c r="D344">
-        <v>53.42171478271484</v>
+        <v>53.42171859741211</v>
       </c>
       <c r="E344">
         <v>16125400</v>
@@ -10392,16 +10392,16 @@
     </row>
     <row r="345" spans="1:9">
       <c r="A345">
-        <v>53.41218603948521</v>
+        <v>53.41218220563218</v>
       </c>
       <c r="B345">
-        <v>54.21279709748377</v>
+        <v>54.21279320616398</v>
       </c>
       <c r="C345">
-        <v>53.10719169699237</v>
+        <v>53.10718788503141</v>
       </c>
       <c r="D345">
-        <v>53.14531326293945</v>
+        <v>53.14530944824219</v>
       </c>
       <c r="E345">
         <v>27587700</v>
@@ -10421,16 +10421,16 @@
     </row>
     <row r="346" spans="1:9">
       <c r="A346">
-        <v>53.53609049084221</v>
+        <v>53.53608279154149</v>
       </c>
       <c r="B346">
-        <v>53.55515309279341</v>
+        <v>53.55514539075119</v>
       </c>
       <c r="C346">
-        <v>52.31611305252192</v>
+        <v>52.31610552867244</v>
       </c>
       <c r="D346">
-        <v>53.05000686645508</v>
+        <v>53.04999923706055</v>
       </c>
       <c r="E346">
         <v>17465100</v>
@@ -10508,16 +10508,16 @@
     </row>
     <row r="349" spans="1:9">
       <c r="A349">
-        <v>52.48244074866233</v>
+        <v>52.48244458581134</v>
       </c>
       <c r="B349">
-        <v>52.54961491081787</v>
+        <v>52.54961875287818</v>
       </c>
       <c r="C349">
-        <v>51.6667524020781</v>
+        <v>51.66675617958969</v>
       </c>
       <c r="D349">
-        <v>52.17535781860352</v>
+        <v>52.17536163330078</v>
       </c>
       <c r="E349">
         <v>19644100</v>
@@ -10537,16 +10537,16 @@
     </row>
     <row r="350" spans="1:9">
       <c r="A350">
-        <v>52.23293797349775</v>
+        <v>52.23294177422939</v>
       </c>
       <c r="B350">
-        <v>52.63598295208499</v>
+        <v>52.63598678214421</v>
       </c>
       <c r="C350">
-        <v>51.57079108265414</v>
+        <v>51.57079483520463</v>
       </c>
       <c r="D350">
-        <v>52.42486572265625</v>
+        <v>52.42486953735352</v>
       </c>
       <c r="E350">
         <v>15739000</v>
@@ -10566,16 +10566,16 @@
     </row>
     <row r="351" spans="1:9">
       <c r="A351">
-        <v>52.62639005684938</v>
+        <v>52.62638620279625</v>
       </c>
       <c r="B351">
-        <v>52.69356422230214</v>
+        <v>52.69356036332957</v>
       </c>
       <c r="C351">
-        <v>51.82989115117018</v>
+        <v>51.82988735544804</v>
       </c>
       <c r="D351">
-        <v>52.08899307250977</v>
+        <v>52.0889892578125</v>
       </c>
       <c r="E351">
         <v>18148200</v>
@@ -10711,16 +10711,16 @@
     </row>
     <row r="356" spans="1:9">
       <c r="A356">
-        <v>48.8262356568688</v>
+        <v>48.82623945439958</v>
       </c>
       <c r="B356">
-        <v>49.47878782766782</v>
+        <v>49.4787916759518</v>
       </c>
       <c r="C356">
-        <v>48.74946309055482</v>
+        <v>48.74946688211451</v>
       </c>
       <c r="D356">
-        <v>49.04695129394531</v>
+        <v>49.04695510864258</v>
       </c>
       <c r="E356">
         <v>13990700</v>
@@ -10769,16 +10769,16 @@
     </row>
     <row r="358" spans="1:9">
       <c r="A358">
-        <v>50.11214872150113</v>
+        <v>50.11214496436242</v>
       </c>
       <c r="B358">
-        <v>51.50361676090109</v>
+        <v>51.50361289943761</v>
       </c>
       <c r="C358">
-        <v>50.04497455383565</v>
+        <v>50.0449708017333</v>
       </c>
       <c r="D358">
-        <v>50.87985610961914</v>
+        <v>50.87985229492188</v>
       </c>
       <c r="E358">
         <v>19526200</v>
@@ -10827,16 +10827,16 @@
     </row>
     <row r="360" spans="1:9">
       <c r="A360">
-        <v>50.78389382710573</v>
+        <v>50.78388989654167</v>
       </c>
       <c r="B360">
-        <v>50.82228011428288</v>
+        <v>50.82227618074781</v>
       </c>
       <c r="C360">
-        <v>49.21969106217389</v>
+        <v>49.21968725267576</v>
       </c>
       <c r="D360">
-        <v>49.286865234375</v>
+        <v>49.28686141967773</v>
       </c>
       <c r="E360">
         <v>17693000</v>
@@ -10856,16 +10856,16 @@
     </row>
     <row r="361" spans="1:9">
       <c r="A361">
-        <v>49.37322190549114</v>
+        <v>49.37322946291057</v>
       </c>
       <c r="B361">
-        <v>49.88182728842271</v>
+        <v>49.88183492369292</v>
       </c>
       <c r="C361">
-        <v>48.49995419443204</v>
+        <v>48.49996161818285</v>
       </c>
       <c r="D361">
-        <v>49.84344100952148</v>
+        <v>49.84344863891602</v>
       </c>
       <c r="E361">
         <v>18677000</v>
@@ -10914,16 +10914,16 @@
     </row>
     <row r="363" spans="1:9">
       <c r="A363">
-        <v>48.85502537243316</v>
+        <v>48.85502143395757</v>
       </c>
       <c r="B363">
-        <v>49.04695313470381</v>
+        <v>49.04694918075585</v>
       </c>
       <c r="C363">
-        <v>47.26203116880666</v>
+        <v>47.26202735875119</v>
       </c>
       <c r="D363">
-        <v>47.31961059570312</v>
+        <v>47.31960678100586</v>
       </c>
       <c r="E363">
         <v>33668600</v>
@@ -11030,16 +11030,16 @@
     </row>
     <row r="367" spans="1:9">
       <c r="A367">
-        <v>47.76104425191113</v>
+        <v>47.76104044867612</v>
       </c>
       <c r="B367">
-        <v>48.32722916525663</v>
+        <v>48.32722531693604</v>
       </c>
       <c r="C367">
-        <v>47.53073019363594</v>
+        <v>47.53072640874095</v>
       </c>
       <c r="D367">
-        <v>47.90498733520508</v>
+        <v>47.90498352050781</v>
       </c>
       <c r="E367">
         <v>15828200</v>
@@ -11059,16 +11059,16 @@
     </row>
     <row r="368" spans="1:9">
       <c r="A368">
-        <v>48.01054093711733</v>
+        <v>48.01054463718117</v>
       </c>
       <c r="B368">
-        <v>49.574747111767</v>
+        <v>49.57475093238067</v>
       </c>
       <c r="C368">
-        <v>47.66507172939424</v>
+        <v>47.66507540283354</v>
       </c>
       <c r="D368">
-        <v>49.49797821044922</v>
+        <v>49.49798202514648</v>
       </c>
       <c r="E368">
         <v>23942300</v>
@@ -11088,16 +11088,16 @@
     </row>
     <row r="369" spans="1:9">
       <c r="A369">
-        <v>49.08534104308176</v>
+        <v>49.08533710996811</v>
       </c>
       <c r="B369">
-        <v>49.1429168111653</v>
+        <v>49.14291287343821</v>
       </c>
       <c r="C369">
-        <v>47.17566541942752</v>
+        <v>47.1756616393325</v>
       </c>
       <c r="D369">
-        <v>47.60750198364258</v>
+        <v>47.60749816894531</v>
       </c>
       <c r="E369">
         <v>24846500</v>
@@ -11117,16 +11117,16 @@
     </row>
     <row r="370" spans="1:9">
       <c r="A370">
-        <v>47.16607152356223</v>
+        <v>47.16606772278442</v>
       </c>
       <c r="B370">
-        <v>47.82821849341288</v>
+        <v>47.82821463927736</v>
       </c>
       <c r="C370">
-        <v>46.87817803511451</v>
+        <v>46.87817425753598</v>
       </c>
       <c r="D370">
-        <v>47.33880615234375</v>
+        <v>47.33880233764648</v>
       </c>
       <c r="E370">
         <v>21743900</v>
@@ -11146,16 +11146,16 @@
     </row>
     <row r="371" spans="1:9">
       <c r="A371">
-        <v>47.02212423166495</v>
+        <v>47.02212041385103</v>
       </c>
       <c r="B371">
-        <v>47.425169253649</v>
+        <v>47.42516540311109</v>
       </c>
       <c r="C371">
-        <v>46.705442862348</v>
+        <v>46.70543907024603</v>
       </c>
       <c r="D371">
-        <v>46.98373794555664</v>
+        <v>46.98373413085938</v>
       </c>
       <c r="E371">
         <v>22421200</v>
@@ -11175,16 +11175,16 @@
     </row>
     <row r="372" spans="1:9">
       <c r="A372">
-        <v>47.70345677309097</v>
+        <v>47.70346442712126</v>
       </c>
       <c r="B372">
-        <v>48.21206583158767</v>
+        <v>48.2120735672244</v>
       </c>
       <c r="C372">
-        <v>47.1660634956536</v>
+        <v>47.16607106345902</v>
       </c>
       <c r="D372">
-        <v>47.5499153137207</v>
+        <v>47.54992294311523</v>
       </c>
       <c r="E372">
         <v>21741100</v>
@@ -11233,16 +11233,16 @@
     </row>
     <row r="374" spans="1:9">
       <c r="A374">
-        <v>46.66705826220589</v>
+        <v>46.66706210376167</v>
       </c>
       <c r="B374">
-        <v>46.81100133794439</v>
+        <v>46.81100519134933</v>
       </c>
       <c r="C374">
-        <v>45.55388163719397</v>
+        <v>45.55388538711487</v>
       </c>
       <c r="D374">
-        <v>46.34078216552734</v>
+        <v>46.34078598022461</v>
       </c>
       <c r="E374">
         <v>25951000</v>
@@ -11262,16 +11262,16 @@
     </row>
     <row r="375" spans="1:9">
       <c r="A375">
-        <v>46.74382862401541</v>
+        <v>46.74382112547242</v>
       </c>
       <c r="B375">
-        <v>47.62669489101256</v>
+        <v>47.6266872508421</v>
       </c>
       <c r="C375">
-        <v>46.57109399918375</v>
+        <v>46.57108652835047</v>
       </c>
       <c r="D375">
-        <v>47.55952072143555</v>
+        <v>47.55951309204102</v>
       </c>
       <c r="E375">
         <v>18954500</v>
@@ -11320,16 +11320,16 @@
     </row>
     <row r="377" spans="1:9">
       <c r="A377">
-        <v>47.67467449885378</v>
+        <v>47.67466700817524</v>
       </c>
       <c r="B377">
-        <v>48.67269593246296</v>
+        <v>48.67268828497459</v>
       </c>
       <c r="C377">
-        <v>47.51153461993806</v>
+        <v>47.51152715489217</v>
       </c>
       <c r="D377">
-        <v>48.55753707885742</v>
+        <v>48.55752944946289</v>
       </c>
       <c r="E377">
         <v>18780600</v>
@@ -11349,16 +11349,16 @@
     </row>
     <row r="378" spans="1:9">
       <c r="A378">
-        <v>48.43278188534266</v>
+        <v>48.43278586647941</v>
       </c>
       <c r="B378">
-        <v>48.43278188534266</v>
+        <v>48.43278586647941</v>
       </c>
       <c r="C378">
-        <v>46.2640046339651</v>
+        <v>46.26400843683006</v>
       </c>
       <c r="D378">
-        <v>46.40795135498047</v>
+        <v>46.40795516967773</v>
       </c>
       <c r="E378">
         <v>40672700</v>
@@ -11465,16 +11465,16 @@
     </row>
     <row r="382" spans="1:9">
       <c r="A382">
-        <v>41.64817084974267</v>
+        <v>41.64816706729201</v>
       </c>
       <c r="B382">
-        <v>42.28152996124945</v>
+        <v>42.28152612127766</v>
       </c>
       <c r="C382">
-        <v>40.78449767008891</v>
+        <v>40.7844939660763</v>
       </c>
       <c r="D382">
-        <v>42.00323486328125</v>
+        <v>42.00323104858398</v>
       </c>
       <c r="E382">
         <v>30053900</v>
@@ -11523,16 +11523,16 @@
     </row>
     <row r="384" spans="1:9">
       <c r="A384">
-        <v>42.27192146058417</v>
+        <v>42.27192519557874</v>
       </c>
       <c r="B384">
-        <v>43.69218083617297</v>
+        <v>43.69218469665653</v>
       </c>
       <c r="C384">
-        <v>42.27192146058417</v>
+        <v>42.27192519557874</v>
       </c>
       <c r="D384">
-        <v>43.17398071289062</v>
+        <v>43.17398452758789</v>
       </c>
       <c r="E384">
         <v>28294700</v>
@@ -11552,16 +11552,16 @@
     </row>
     <row r="385" spans="1:9">
       <c r="A385">
-        <v>43.29873545057163</v>
+        <v>43.29873922345941</v>
       </c>
       <c r="B385">
-        <v>43.79774615065776</v>
+        <v>43.79774996702744</v>
       </c>
       <c r="C385">
-        <v>43.13559923783907</v>
+        <v>43.13560299651178</v>
       </c>
       <c r="D385">
-        <v>43.7785530090332</v>
+        <v>43.77855682373047</v>
       </c>
       <c r="E385">
         <v>23882100</v>
@@ -11610,16 +11610,16 @@
     </row>
     <row r="387" spans="1:9">
       <c r="A387">
-        <v>43.71137982646211</v>
+        <v>43.71137598477608</v>
       </c>
       <c r="B387">
-        <v>43.95128861108672</v>
+        <v>43.9512847483157</v>
       </c>
       <c r="C387">
-        <v>42.96286558986291</v>
+        <v>42.96286181396196</v>
       </c>
       <c r="D387">
-        <v>43.404296875</v>
+        <v>43.40429306030273</v>
       </c>
       <c r="E387">
         <v>20666000</v>
@@ -11668,16 +11668,16 @@
     </row>
     <row r="389" spans="1:9">
       <c r="A389">
-        <v>43.7113784170669</v>
+        <v>43.71138225705491</v>
       </c>
       <c r="B389">
-        <v>43.89371143036183</v>
+        <v>43.89371528636757</v>
       </c>
       <c r="C389">
-        <v>43.2987350279601</v>
+        <v>43.29873883169792</v>
       </c>
       <c r="D389">
-        <v>43.42348861694336</v>
+        <v>43.42349243164062</v>
       </c>
       <c r="E389">
         <v>17947000</v>
@@ -11726,16 +11726,16 @@
     </row>
     <row r="391" spans="1:9">
       <c r="A391">
-        <v>43.01084541305917</v>
+        <v>43.01084916497339</v>
       </c>
       <c r="B391">
-        <v>43.80734431290569</v>
+        <v>43.80734813429996</v>
       </c>
       <c r="C391">
-        <v>42.91488336617721</v>
+        <v>42.91488710972049</v>
       </c>
       <c r="D391">
-        <v>43.73057174682617</v>
+        <v>43.73057556152344</v>
       </c>
       <c r="E391">
         <v>14667200</v>
@@ -11784,16 +11784,16 @@
     </row>
     <row r="393" spans="1:9">
       <c r="A393">
-        <v>43.02044124114137</v>
+        <v>43.02044510496631</v>
       </c>
       <c r="B393">
-        <v>43.4426793471725</v>
+        <v>43.44268324892021</v>
       </c>
       <c r="C393">
-        <v>42.45425641267926</v>
+        <v>42.45426022565304</v>
       </c>
       <c r="D393">
-        <v>42.47344589233398</v>
+        <v>42.47344970703125</v>
       </c>
       <c r="E393">
         <v>18417700</v>
@@ -11842,16 +11842,16 @@
     </row>
     <row r="395" spans="1:9">
       <c r="A395">
-        <v>41.32189047338196</v>
+        <v>41.32189427219932</v>
       </c>
       <c r="B395">
-        <v>42.07040471164366</v>
+        <v>42.07040857927368</v>
       </c>
       <c r="C395">
-        <v>41.15875059590174</v>
+        <v>41.15875437972129</v>
       </c>
       <c r="D395">
-        <v>41.49462509155273</v>
+        <v>41.49462890625</v>
       </c>
       <c r="E395">
         <v>29050800</v>
@@ -11929,16 +11929,16 @@
     </row>
     <row r="398" spans="1:9">
       <c r="A398">
-        <v>41.08198731073386</v>
+        <v>41.08198354094631</v>
       </c>
       <c r="B398">
-        <v>41.65776700962639</v>
+        <v>41.65776318700384</v>
       </c>
       <c r="C398">
-        <v>41.08198731073386</v>
+        <v>41.08198354094631</v>
       </c>
       <c r="D398">
-        <v>41.5713996887207</v>
+        <v>41.57139587402344</v>
       </c>
       <c r="E398">
         <v>27049000</v>
@@ -11958,16 +11958,16 @@
     </row>
     <row r="399" spans="1:9">
       <c r="A399">
-        <v>41.60978099489232</v>
+        <v>41.60977718283244</v>
       </c>
       <c r="B399">
-        <v>42.22394690968196</v>
+        <v>42.22394304135558</v>
       </c>
       <c r="C399">
-        <v>41.49462580104866</v>
+        <v>41.49462199953867</v>
       </c>
       <c r="D399">
-        <v>41.63856887817383</v>
+        <v>41.63856506347656</v>
       </c>
       <c r="E399">
         <v>59678600</v>
@@ -12016,16 +12016,16 @@
     </row>
     <row r="401" spans="1:9">
       <c r="A401">
-        <v>41.71534013665815</v>
+        <v>41.71534774854229</v>
       </c>
       <c r="B401">
-        <v>42.33910077269599</v>
+        <v>42.33910849839902</v>
       </c>
       <c r="C401">
-        <v>41.42744667002184</v>
+        <v>41.42745422937347</v>
       </c>
       <c r="D401">
-        <v>41.81130218505859</v>
+        <v>41.81130981445312</v>
       </c>
       <c r="E401">
         <v>19942300</v>
@@ -12103,16 +12103,16 @@
     </row>
     <row r="404" spans="1:9">
       <c r="A404">
-        <v>42.50224562700143</v>
+        <v>42.50224176698444</v>
       </c>
       <c r="B404">
-        <v>42.50224562700143</v>
+        <v>42.50224176698444</v>
       </c>
       <c r="C404">
-        <v>41.86888651549464</v>
+        <v>41.86888271299878</v>
       </c>
       <c r="D404">
-        <v>42.00323486328125</v>
+        <v>42.00323104858398</v>
       </c>
       <c r="E404">
         <v>22755300</v>
@@ -12132,16 +12132,16 @@
     </row>
     <row r="405" spans="1:9">
       <c r="A405">
-        <v>42.13758021580097</v>
+        <v>42.13757632580211</v>
       </c>
       <c r="B405">
-        <v>42.6749772294655</v>
+        <v>42.67497328985596</v>
       </c>
       <c r="C405">
-        <v>41.25471761554962</v>
+        <v>41.25471380705364</v>
       </c>
       <c r="D405">
-        <v>41.32189178466797</v>
+        <v>41.3218879699707</v>
       </c>
       <c r="E405">
         <v>20091300</v>
@@ -12161,16 +12161,16 @@
     </row>
     <row r="406" spans="1:9">
       <c r="A406">
-        <v>41.39865818170566</v>
+        <v>41.39866201953294</v>
       </c>
       <c r="B406">
-        <v>41.5138133702442</v>
+        <v>41.51381721874684</v>
       </c>
       <c r="C406">
-        <v>40.96682164878936</v>
+        <v>40.96682544658361</v>
       </c>
       <c r="D406">
-        <v>41.14915466308594</v>
+        <v>41.1491584777832</v>
       </c>
       <c r="E406">
         <v>13450800</v>
@@ -12190,16 +12190,16 @@
     </row>
     <row r="407" spans="1:9">
       <c r="A407">
-        <v>40.65974038522038</v>
+        <v>40.65973659467814</v>
       </c>
       <c r="B407">
-        <v>41.39865989190962</v>
+        <v>41.39865603248092</v>
       </c>
       <c r="C407">
-        <v>40.48700576491809</v>
+        <v>40.4870019904792</v>
       </c>
       <c r="D407">
-        <v>40.91884231567383</v>
+        <v>40.91883850097656</v>
       </c>
       <c r="E407">
         <v>24947900</v>
@@ -12219,16 +12219,16 @@
     </row>
     <row r="408" spans="1:9">
       <c r="A408">
-        <v>40.80368230283558</v>
+        <v>40.80368991790297</v>
       </c>
       <c r="B408">
-        <v>40.97641690273527</v>
+        <v>40.97642455003959</v>
       </c>
       <c r="C408">
-        <v>39.89202828352442</v>
+        <v>39.89203572845258</v>
       </c>
       <c r="D408">
-        <v>40.88045120239258</v>
+        <v>40.88045883178711</v>
       </c>
       <c r="E408">
         <v>24338500</v>
@@ -12248,16 +12248,16 @@
     </row>
     <row r="409" spans="1:9">
       <c r="A409">
-        <v>40.20266559663417</v>
+        <v>40.20266937132996</v>
       </c>
       <c r="B409">
-        <v>40.63838886231882</v>
+        <v>40.6383926779254</v>
       </c>
       <c r="C409">
-        <v>39.52487426042089</v>
+        <v>39.52487797147771</v>
       </c>
       <c r="D409">
-        <v>40.62870407104492</v>
+        <v>40.62870788574219</v>
       </c>
       <c r="E409">
         <v>24442600</v>
@@ -12306,16 +12306,16 @@
     </row>
     <row r="411" spans="1:9">
       <c r="A411">
-        <v>41.51951924909645</v>
+        <v>41.51951546440839</v>
       </c>
       <c r="B411">
-        <v>41.98428953214241</v>
+        <v>41.98428570508847</v>
       </c>
       <c r="C411">
-        <v>41.43237459017122</v>
+        <v>41.43237081342678</v>
       </c>
       <c r="D411">
-        <v>41.84873199462891</v>
+        <v>41.84872817993164</v>
       </c>
       <c r="E411">
         <v>22316700</v>
@@ -12335,16 +12335,16 @@
     </row>
     <row r="412" spans="1:9">
       <c r="A412">
-        <v>41.66475754875167</v>
+        <v>41.66475376570441</v>
       </c>
       <c r="B412">
-        <v>42.22635727810961</v>
+        <v>42.22635344407061</v>
       </c>
       <c r="C412">
-        <v>41.57761289052944</v>
+        <v>41.57760911539467</v>
       </c>
       <c r="D412">
-        <v>42.01333618164062</v>
+        <v>42.01333236694336</v>
       </c>
       <c r="E412">
         <v>11817000</v>
@@ -12422,16 +12422,16 @@
     </row>
     <row r="415" spans="1:9">
       <c r="A415">
-        <v>40.52219638846518</v>
+        <v>40.52219264970471</v>
       </c>
       <c r="B415">
-        <v>41.68412394772685</v>
+        <v>41.68412010176171</v>
       </c>
       <c r="C415">
-        <v>40.47378350967633</v>
+        <v>40.47377977538265</v>
       </c>
       <c r="D415">
-        <v>41.34523010253906</v>
+        <v>41.3452262878418</v>
       </c>
       <c r="E415">
         <v>16854200</v>
@@ -12451,16 +12451,16 @@
     </row>
     <row r="416" spans="1:9">
       <c r="A416">
-        <v>40.46410105593777</v>
+        <v>40.46409728990433</v>
       </c>
       <c r="B416">
-        <v>41.1225265276749</v>
+        <v>41.12252270036117</v>
       </c>
       <c r="C416">
-        <v>40.03805887206917</v>
+        <v>40.0380551456879</v>
       </c>
       <c r="D416">
-        <v>40.98696899414062</v>
+        <v>40.98696517944336</v>
       </c>
       <c r="E416">
         <v>17336200</v>
@@ -12509,16 +12509,16 @@
     </row>
     <row r="418" spans="1:9">
       <c r="A418">
-        <v>41.92618528740353</v>
+        <v>41.92619304216384</v>
       </c>
       <c r="B418">
-        <v>41.94555117453535</v>
+        <v>41.94555893287761</v>
       </c>
       <c r="C418">
-        <v>41.06442362519687</v>
+        <v>41.06443122056383</v>
       </c>
       <c r="D418">
-        <v>41.24839401245117</v>
+        <v>41.2484016418457</v>
       </c>
       <c r="E418">
         <v>16743800</v>
@@ -12538,16 +12538,16 @@
     </row>
     <row r="419" spans="1:9">
       <c r="A419">
-        <v>41.46141758324738</v>
+        <v>41.46142129311202</v>
       </c>
       <c r="B419">
-        <v>42.69112378795386</v>
+        <v>42.69112760784956</v>
       </c>
       <c r="C419">
-        <v>41.29681307317586</v>
+        <v>41.29681676831211</v>
       </c>
       <c r="D419">
-        <v>42.63302612304688</v>
+        <v>42.63302993774414</v>
       </c>
       <c r="E419">
         <v>22861400</v>
@@ -12683,16 +12683,16 @@
     </row>
     <row r="424" spans="1:9">
       <c r="A424">
-        <v>42.96224106770565</v>
+        <v>42.96223720601031</v>
       </c>
       <c r="B424">
-        <v>43.1268492799901</v>
+        <v>43.12684540349883</v>
       </c>
       <c r="C424">
-        <v>42.36191327382301</v>
+        <v>42.36190946608863</v>
       </c>
       <c r="D424">
-        <v>42.43937683105469</v>
+        <v>42.43937301635742</v>
       </c>
       <c r="E424">
         <v>19513000</v>
@@ -12741,16 +12741,16 @@
     </row>
     <row r="426" spans="1:9">
       <c r="A426">
-        <v>43.45606129473793</v>
+        <v>43.45606504755734</v>
       </c>
       <c r="B426">
-        <v>44.41464879085527</v>
+        <v>44.41465262645728</v>
       </c>
       <c r="C426">
-        <v>43.29145308516622</v>
+        <v>43.29145682377024</v>
       </c>
       <c r="D426">
-        <v>44.17258071899414</v>
+        <v>44.17258453369141</v>
       </c>
       <c r="E426">
         <v>17576200</v>
@@ -12770,16 +12770,16 @@
     </row>
     <row r="427" spans="1:9">
       <c r="A427">
-        <v>43.67875851896928</v>
+        <v>43.67876231180596</v>
       </c>
       <c r="B427">
-        <v>44.04670298065362</v>
+        <v>44.04670680544069</v>
       </c>
       <c r="C427">
-        <v>43.40764349123621</v>
+        <v>43.40764726053067</v>
       </c>
       <c r="D427">
-        <v>43.93050765991211</v>
+        <v>43.93051147460938</v>
       </c>
       <c r="E427">
         <v>23701700</v>
@@ -12799,16 +12799,16 @@
     </row>
     <row r="428" spans="1:9">
       <c r="A428">
-        <v>43.63035493228356</v>
+        <v>43.6303473399572</v>
       </c>
       <c r="B428">
-        <v>43.98861467996894</v>
+        <v>43.9886070253001</v>
       </c>
       <c r="C428">
-        <v>43.33987026228708</v>
+        <v>43.33986272050934</v>
       </c>
       <c r="D428">
-        <v>43.8433723449707</v>
+        <v>43.84336471557617</v>
       </c>
       <c r="E428">
         <v>14153400</v>
@@ -12857,16 +12857,16 @@
     </row>
     <row r="430" spans="1:9">
       <c r="A430">
-        <v>43.47542925183453</v>
+        <v>43.475432998934</v>
       </c>
       <c r="B430">
-        <v>44.3662380256994</v>
+        <v>44.36624184957671</v>
       </c>
       <c r="C430">
-        <v>43.36891870416246</v>
+        <v>43.36892244208191</v>
       </c>
       <c r="D430">
-        <v>44.25972747802734</v>
+        <v>44.25973129272461</v>
       </c>
       <c r="E430">
         <v>14943800</v>
@@ -12915,16 +12915,16 @@
     </row>
     <row r="432" spans="1:9">
       <c r="A432">
-        <v>43.48510632095807</v>
+        <v>43.48511012718025</v>
       </c>
       <c r="B432">
-        <v>43.6400297322182</v>
+        <v>43.64003355200071</v>
       </c>
       <c r="C432">
-        <v>43.12684662498132</v>
+        <v>43.12685039984526</v>
       </c>
       <c r="D432">
-        <v>43.58193206787109</v>
+        <v>43.58193588256836</v>
       </c>
       <c r="E432">
         <v>19533900</v>
@@ -13031,16 +13031,16 @@
     </row>
     <row r="436" spans="1:9">
       <c r="A436">
-        <v>44.64703900639958</v>
+        <v>44.64703517424954</v>
       </c>
       <c r="B436">
-        <v>44.95688586538326</v>
+        <v>44.9568820066384</v>
       </c>
       <c r="C436">
-        <v>44.31782625702119</v>
+        <v>44.31782245312817</v>
       </c>
       <c r="D436">
-        <v>44.44370269775391</v>
+        <v>44.44369888305664</v>
       </c>
       <c r="E436">
         <v>15849000</v>
@@ -13118,16 +13118,16 @@
     </row>
     <row r="439" spans="1:9">
       <c r="A439">
-        <v>45.09244327051865</v>
+        <v>45.09243947213402</v>
       </c>
       <c r="B439">
-        <v>45.51848177693904</v>
+        <v>45.51847794266685</v>
       </c>
       <c r="C439">
-        <v>44.96656683015989</v>
+        <v>44.96656304237852</v>
       </c>
       <c r="D439">
-        <v>45.28609848022461</v>
+        <v>45.28609466552734</v>
       </c>
       <c r="E439">
         <v>21153700</v>
@@ -13205,16 +13205,16 @@
     </row>
     <row r="442" spans="1:9">
       <c r="A442">
-        <v>47.4550196583694</v>
+        <v>47.45502349734894</v>
       </c>
       <c r="B442">
-        <v>47.89074289409517</v>
+        <v>47.89074676832351</v>
       </c>
       <c r="C442">
-        <v>46.99993422875837</v>
+        <v>46.99993803092276</v>
       </c>
       <c r="D442">
-        <v>47.15485763549805</v>
+        <v>47.15486145019531</v>
       </c>
       <c r="E442">
         <v>23130400</v>
@@ -13234,16 +13234,16 @@
     </row>
     <row r="443" spans="1:9">
       <c r="A443">
-        <v>46.9321589965856</v>
+        <v>46.93216287204953</v>
       </c>
       <c r="B443">
-        <v>46.96120598326203</v>
+        <v>46.96120986112454</v>
       </c>
       <c r="C443">
-        <v>46.01229958395352</v>
+        <v>46.01230338345926</v>
       </c>
       <c r="D443">
-        <v>46.19626998901367</v>
+        <v>46.19627380371094</v>
       </c>
       <c r="E443">
         <v>20534100</v>
@@ -13263,16 +13263,16 @@
     </row>
     <row r="444" spans="1:9">
       <c r="A444">
-        <v>46.08008155584868</v>
+        <v>46.08007772666825</v>
       </c>
       <c r="B444">
-        <v>46.51580485465006</v>
+        <v>46.51580098926173</v>
       </c>
       <c r="C444">
-        <v>45.88642634597407</v>
+        <v>45.88642253288608</v>
       </c>
       <c r="D444">
-        <v>45.90579223632812</v>
+        <v>45.90578842163086</v>
       </c>
       <c r="E444">
         <v>13764600</v>
@@ -13292,16 +13292,16 @@
     </row>
     <row r="445" spans="1:9">
       <c r="A445">
-        <v>45.59594212188124</v>
+        <v>45.59594593819941</v>
       </c>
       <c r="B445">
-        <v>45.90578895808736</v>
+        <v>45.90579280033928</v>
       </c>
       <c r="C445">
-        <v>45.38292103686493</v>
+        <v>45.38292483535351</v>
       </c>
       <c r="D445">
-        <v>45.57657623291016</v>
+        <v>45.57658004760742</v>
       </c>
       <c r="E445">
         <v>14946500</v>
@@ -13350,16 +13350,16 @@
     </row>
     <row r="447" spans="1:9">
       <c r="A447">
-        <v>45.58625971865226</v>
+        <v>45.58626363227085</v>
       </c>
       <c r="B447">
-        <v>45.77023011811028</v>
+        <v>45.77023404752287</v>
       </c>
       <c r="C447">
-        <v>44.42433226932376</v>
+        <v>44.42433608318989</v>
       </c>
       <c r="D447">
-        <v>44.43401336669922</v>
+        <v>44.43401718139648</v>
       </c>
       <c r="E447">
         <v>20309800</v>
@@ -13379,16 +13379,16 @@
     </row>
     <row r="448" spans="1:9">
       <c r="A448">
-        <v>44.26941226981525</v>
+        <v>44.26941608534725</v>
       </c>
       <c r="B448">
-        <v>44.54052734122354</v>
+        <v>44.54053118012265</v>
       </c>
       <c r="C448">
-        <v>44.04671007634903</v>
+        <v>44.04671387268657</v>
       </c>
       <c r="D448">
-        <v>44.25972747802734</v>
+        <v>44.25973129272461</v>
       </c>
       <c r="E448">
         <v>13425700</v>
@@ -13466,16 +13466,16 @@
     </row>
     <row r="451" spans="1:9">
       <c r="A451">
-        <v>43.15589304358559</v>
+        <v>43.15589679763841</v>
       </c>
       <c r="B451">
-        <v>43.90146310475433</v>
+        <v>43.90146692366294</v>
       </c>
       <c r="C451">
-        <v>42.991288537262</v>
+        <v>42.99129227699617</v>
       </c>
       <c r="D451">
-        <v>43.85305023193359</v>
+        <v>43.85305404663086</v>
       </c>
       <c r="E451">
         <v>16236400</v>
@@ -13582,16 +13582,16 @@
     </row>
     <row r="455" spans="1:9">
       <c r="A455">
-        <v>43.33986104063771</v>
+        <v>43.3398648040463</v>
       </c>
       <c r="B455">
-        <v>44.02733709386337</v>
+        <v>44.0273409169688</v>
       </c>
       <c r="C455">
-        <v>43.20430352677118</v>
+        <v>43.20430727840865</v>
       </c>
       <c r="D455">
-        <v>43.93050765991211</v>
+        <v>43.93051147460938</v>
       </c>
       <c r="E455">
         <v>14231500</v>
@@ -13727,16 +13727,16 @@
     </row>
     <row r="460" spans="1:9">
       <c r="A460">
-        <v>42.42000974778434</v>
+        <v>42.42001360830384</v>
       </c>
       <c r="B460">
-        <v>42.47810372040726</v>
+        <v>42.47810758621372</v>
       </c>
       <c r="C460">
-        <v>41.72285252698445</v>
+        <v>41.72285632405773</v>
       </c>
       <c r="D460">
-        <v>41.91650772094727</v>
+        <v>41.91651153564453</v>
       </c>
       <c r="E460">
         <v>18148600</v>
@@ -13756,16 +13756,16 @@
     </row>
     <row r="461" spans="1:9">
       <c r="A461">
-        <v>41.74221901720801</v>
+        <v>41.74221521924948</v>
       </c>
       <c r="B461">
-        <v>42.19730817552814</v>
+        <v>42.19730433616285</v>
       </c>
       <c r="C461">
-        <v>41.43237217986918</v>
+        <v>41.43236841010238</v>
       </c>
       <c r="D461">
-        <v>41.92618942260742</v>
+        <v>41.92618560791016</v>
       </c>
       <c r="E461">
         <v>32696100</v>
@@ -13785,16 +13785,16 @@
     </row>
     <row r="462" spans="1:9">
       <c r="A462">
-        <v>41.53888272276672</v>
+        <v>41.53887894330894</v>
       </c>
       <c r="B462">
-        <v>42.06174695223495</v>
+        <v>42.06174312520384</v>
       </c>
       <c r="C462">
-        <v>41.40332149947353</v>
+        <v>41.40331773234994</v>
       </c>
       <c r="D462">
-        <v>41.92618942260742</v>
+        <v>41.92618560791016</v>
       </c>
       <c r="E462">
         <v>13667500</v>
@@ -13814,16 +13814,16 @@
     </row>
     <row r="463" spans="1:9">
       <c r="A463">
-        <v>41.64538809563878</v>
+        <v>41.64539194885897</v>
       </c>
       <c r="B463">
-        <v>41.65507288664922</v>
+        <v>41.65507674076549</v>
       </c>
       <c r="C463">
-        <v>40.91918390380807</v>
+        <v>40.91918768983656</v>
       </c>
       <c r="D463">
-        <v>41.22903442382812</v>
+        <v>41.22903823852539</v>
       </c>
       <c r="E463">
         <v>16813900</v>
@@ -13843,16 +13843,16 @@
     </row>
     <row r="464" spans="1:9">
       <c r="A464">
-        <v>40.97728514246177</v>
+        <v>40.97728902411569</v>
       </c>
       <c r="B464">
-        <v>41.50983419084758</v>
+        <v>41.50983812294826</v>
       </c>
       <c r="C464">
-        <v>40.25108088729952</v>
+        <v>40.25108470016232</v>
       </c>
       <c r="D464">
-        <v>40.27044677734375</v>
+        <v>40.27045059204102</v>
       </c>
       <c r="E464">
         <v>21415900</v>
@@ -13872,16 +13872,16 @@
     </row>
     <row r="465" spans="1:9">
       <c r="A465">
-        <v>40.02837653292666</v>
+        <v>40.02838036523721</v>
       </c>
       <c r="B465">
-        <v>40.23171282692314</v>
+        <v>40.23171667870108</v>
       </c>
       <c r="C465">
-        <v>39.83472133659711</v>
+        <v>39.83472515036715</v>
       </c>
       <c r="D465">
-        <v>39.84440612792969</v>
+        <v>39.84440994262695</v>
       </c>
       <c r="E465">
         <v>16691000</v>
@@ -13901,16 +13901,16 @@
     </row>
     <row r="466" spans="1:9">
       <c r="A466">
-        <v>39.94123011321657</v>
+        <v>39.94123398326731</v>
       </c>
       <c r="B466">
-        <v>39.94123011321657</v>
+        <v>39.94123398326731</v>
       </c>
       <c r="C466">
-        <v>38.84708144194939</v>
+        <v>38.84708520598409</v>
       </c>
       <c r="D466">
-        <v>39.36994934082031</v>
+        <v>39.36995315551758</v>
       </c>
       <c r="E466">
         <v>19067700</v>
@@ -13988,16 +13988,16 @@
     </row>
     <row r="469" spans="1:9">
       <c r="A469">
-        <v>39.55391870529974</v>
+        <v>39.55392247478152</v>
       </c>
       <c r="B469">
-        <v>40.25107588559803</v>
+        <v>40.25107972151878</v>
       </c>
       <c r="C469">
-        <v>39.30216955333945</v>
+        <v>39.30217329882959</v>
       </c>
       <c r="D469">
-        <v>40.02837371826172</v>
+        <v>40.02837753295898</v>
       </c>
       <c r="E469">
         <v>23217700</v>
@@ -14046,16 +14046,16 @@
     </row>
     <row r="471" spans="1:9">
       <c r="A471">
-        <v>39.36994787700314</v>
+        <v>39.36995563228265</v>
       </c>
       <c r="B471">
-        <v>39.73789235071308</v>
+        <v>39.73790017847205</v>
       </c>
       <c r="C471">
-        <v>38.69215659185284</v>
+        <v>38.6921642136178</v>
       </c>
       <c r="D471">
-        <v>38.73088836669922</v>
+        <v>38.73089599609375</v>
       </c>
       <c r="E471">
         <v>27989900</v>
@@ -14191,16 +14191,16 @@
     </row>
     <row r="476" spans="1:9">
       <c r="A476">
-        <v>40.31223562002661</v>
+        <v>40.31223171249593</v>
       </c>
       <c r="B476">
-        <v>40.31223562002661</v>
+        <v>40.31223171249593</v>
       </c>
       <c r="C476">
-        <v>39.16883581732301</v>
+        <v>39.16883202062395</v>
       </c>
       <c r="D476">
-        <v>39.35451507568359</v>
+        <v>39.35451126098633</v>
       </c>
       <c r="E476">
         <v>19055400</v>
@@ -14249,16 +14249,16 @@
     </row>
     <row r="478" spans="1:9">
       <c r="A478">
-        <v>38.90496945205139</v>
+        <v>38.90497328891587</v>
       </c>
       <c r="B478">
-        <v>39.19814857164092</v>
+        <v>39.19815243741915</v>
       </c>
       <c r="C478">
-        <v>38.37724480000539</v>
+        <v>38.37724858482489</v>
       </c>
       <c r="D478">
-        <v>38.68019866943359</v>
+        <v>38.68020248413086</v>
       </c>
       <c r="E478">
         <v>19386400</v>
@@ -14336,16 +14336,16 @@
     </row>
     <row r="481" spans="1:9">
       <c r="A481">
-        <v>39.91155594679923</v>
+        <v>39.91155207137053</v>
       </c>
       <c r="B481">
-        <v>40.02882685927672</v>
+        <v>40.02882297246096</v>
       </c>
       <c r="C481">
-        <v>39.01246900987153</v>
+        <v>39.01246522174454</v>
       </c>
       <c r="D481">
-        <v>39.28610610961914</v>
+        <v>39.28610229492188</v>
       </c>
       <c r="E481">
         <v>19571000</v>
@@ -14394,16 +14394,16 @@
     </row>
     <row r="483" spans="1:9">
       <c r="A483">
-        <v>40.96699629491689</v>
+        <v>40.96700394804437</v>
       </c>
       <c r="B483">
-        <v>41.26017912999942</v>
+        <v>41.26018683789699</v>
       </c>
       <c r="C483">
-        <v>40.32200076808961</v>
+        <v>40.32200830072417</v>
       </c>
       <c r="D483">
-        <v>40.8399543762207</v>
+        <v>40.83996200561523</v>
       </c>
       <c r="E483">
         <v>18223300</v>
@@ -14510,16 +14510,16 @@
     </row>
     <row r="487" spans="1:9">
       <c r="A487">
-        <v>42.13972093711103</v>
+        <v>42.13971715921167</v>
       </c>
       <c r="B487">
-        <v>42.735853964208</v>
+        <v>42.73585013286426</v>
       </c>
       <c r="C487">
-        <v>41.9247248905986</v>
+        <v>41.92472113197401</v>
       </c>
       <c r="D487">
-        <v>42.55017471313477</v>
+        <v>42.5501708984375</v>
       </c>
       <c r="E487">
         <v>18785300</v>
@@ -14626,16 +14626,16 @@
     </row>
     <row r="491" spans="1:9">
       <c r="A491">
-        <v>43.67403227825049</v>
+        <v>43.67402480766251</v>
       </c>
       <c r="B491">
-        <v>44.67084441262315</v>
+        <v>44.67083677152715</v>
       </c>
       <c r="C491">
-        <v>43.63494445711896</v>
+        <v>43.63493699321708</v>
       </c>
       <c r="D491">
-        <v>44.60243606567383</v>
+        <v>44.6024284362793</v>
       </c>
       <c r="E491">
         <v>17978300</v>
@@ -14713,16 +14713,16 @@
     </row>
     <row r="494" spans="1:9">
       <c r="A494">
-        <v>44.43630004559859</v>
+        <v>44.43629615387118</v>
       </c>
       <c r="B494">
-        <v>45.15947502305147</v>
+        <v>45.15947106798847</v>
       </c>
       <c r="C494">
-        <v>43.53721310717393</v>
+        <v>43.53720929418848</v>
       </c>
       <c r="D494">
-        <v>43.55675888061523</v>
+        <v>43.55675506591797</v>
       </c>
       <c r="E494">
         <v>15308800</v>
@@ -14858,16 +14858,16 @@
     </row>
     <row r="499" spans="1:9">
       <c r="A499">
-        <v>43.49812051479428</v>
+        <v>43.49811664797193</v>
       </c>
       <c r="B499">
-        <v>43.7033492670077</v>
+        <v>43.70334538194126</v>
       </c>
       <c r="C499">
-        <v>42.89221646457732</v>
+        <v>42.89221265161759</v>
       </c>
       <c r="D499">
-        <v>42.91176223754883</v>
+        <v>42.91175842285156</v>
       </c>
       <c r="E499">
         <v>19311700</v>
@@ -14887,16 +14887,16 @@
     </row>
     <row r="500" spans="1:9">
       <c r="A500">
-        <v>44.6610703061738</v>
+        <v>44.66106648813463</v>
       </c>
       <c r="B500">
-        <v>44.76857019480875</v>
+        <v>44.7685663675795</v>
       </c>
       <c r="C500">
-        <v>43.63494144479709</v>
+        <v>43.63493771448086</v>
       </c>
       <c r="D500">
-        <v>44.62197875976562</v>
+        <v>44.62197494506836</v>
       </c>
       <c r="E500">
         <v>27190100</v>
@@ -14916,16 +14916,16 @@
     </row>
     <row r="501" spans="1:9">
       <c r="A501">
-        <v>44.15289229861616</v>
+        <v>44.15288845070323</v>
       </c>
       <c r="B501">
-        <v>44.28970898589518</v>
+        <v>44.28970512605872</v>
       </c>
       <c r="C501">
-        <v>42.92153465715467</v>
+        <v>42.92153091655425</v>
       </c>
       <c r="D501">
-        <v>43.77175903320312</v>
+        <v>43.77175521850586</v>
       </c>
       <c r="E501">
         <v>25961800</v>
@@ -14945,16 +14945,16 @@
     </row>
     <row r="502" spans="1:9">
       <c r="A502">
-        <v>43.8108468710308</v>
+        <v>43.81085069340181</v>
       </c>
       <c r="B502">
-        <v>44.40697613970545</v>
+        <v>44.40698001408703</v>
       </c>
       <c r="C502">
-        <v>43.66425544537199</v>
+        <v>43.66425925495331</v>
       </c>
       <c r="D502">
-        <v>43.72289276123047</v>
+        <v>43.72289657592773</v>
       </c>
       <c r="E502">
         <v>21091300</v>
@@ -14974,16 +14974,16 @@
     </row>
     <row r="503" spans="1:9">
       <c r="A503">
-        <v>44.01607771065009</v>
+        <v>44.0160738840585</v>
       </c>
       <c r="B503">
-        <v>44.21153172807436</v>
+        <v>44.21152788449073</v>
       </c>
       <c r="C503">
-        <v>43.43949040963494</v>
+        <v>43.43948663316966</v>
       </c>
       <c r="D503">
-        <v>43.8792610168457</v>
+        <v>43.87925720214844</v>
       </c>
       <c r="E503">
         <v>19318000</v>
@@ -15119,16 +15119,16 @@
     </row>
     <row r="508" spans="1:9">
       <c r="A508">
-        <v>46.90878150702932</v>
+        <v>46.90877772229462</v>
       </c>
       <c r="B508">
-        <v>47.31923155578782</v>
+        <v>47.31922773793683</v>
       </c>
       <c r="C508">
-        <v>46.67423595918517</v>
+        <v>46.67423219337427</v>
       </c>
       <c r="D508">
-        <v>47.28014373779297</v>
+        <v>47.2801399230957</v>
       </c>
       <c r="E508">
         <v>16367800</v>
@@ -15148,16 +15148,16 @@
     </row>
     <row r="509" spans="1:9">
       <c r="A509">
-        <v>47.29968684345918</v>
+        <v>47.29969064480477</v>
       </c>
       <c r="B509">
-        <v>47.87627406608725</v>
+        <v>47.87627791377156</v>
       </c>
       <c r="C509">
-        <v>47.22150375592836</v>
+        <v>47.22150755099058</v>
       </c>
       <c r="D509">
-        <v>47.4658203125</v>
+        <v>47.46582412719727</v>
       </c>
       <c r="E509">
         <v>12065600</v>
@@ -15177,16 +15177,16 @@
     </row>
     <row r="510" spans="1:9">
       <c r="A510">
-        <v>47.64172811691889</v>
+        <v>47.64173195920165</v>
       </c>
       <c r="B510">
-        <v>47.93490723665882</v>
+        <v>47.93491110258634</v>
       </c>
       <c r="C510">
-        <v>47.2508201386158</v>
+        <v>47.25082394937202</v>
       </c>
       <c r="D510">
-        <v>47.29968643188477</v>
+        <v>47.29969024658203</v>
       </c>
       <c r="E510">
         <v>8492600</v>
@@ -15206,16 +15206,16 @@
     </row>
     <row r="511" spans="1:9">
       <c r="A511">
-        <v>47.19219020635794</v>
+        <v>47.19218637499922</v>
       </c>
       <c r="B511">
-        <v>47.36809843742046</v>
+        <v>47.36809459178041</v>
       </c>
       <c r="C511">
-        <v>46.83059899363217</v>
+        <v>46.8305951916297</v>
       </c>
       <c r="D511">
-        <v>46.98696517944336</v>
+        <v>46.98696136474609</v>
       </c>
       <c r="E511">
         <v>14976600</v>
@@ -15235,16 +15235,16 @@
     </row>
     <row r="512" spans="1:9">
       <c r="A512">
-        <v>47.15309821297073</v>
+        <v>47.15310202529773</v>
       </c>
       <c r="B512">
-        <v>47.30946066932479</v>
+        <v>47.30946449429369</v>
       </c>
       <c r="C512">
-        <v>46.752419185565</v>
+        <v>46.75242296549711</v>
       </c>
       <c r="D512">
-        <v>47.18241500854492</v>
+        <v>47.18241882324219</v>
       </c>
       <c r="E512">
         <v>13779300</v>
@@ -15351,16 +15351,16 @@
     </row>
     <row r="516" spans="1:9">
       <c r="A516">
-        <v>48.42354555553296</v>
+        <v>48.42354172382327</v>
       </c>
       <c r="B516">
-        <v>48.51149967371557</v>
+        <v>48.51149583504615</v>
       </c>
       <c r="C516">
-        <v>48.05218330898693</v>
+        <v>48.05217950666277</v>
       </c>
       <c r="D516">
-        <v>48.20854949951172</v>
+        <v>48.20854568481445</v>
       </c>
       <c r="E516">
         <v>13795900</v>
@@ -15380,16 +15380,16 @@
     </row>
     <row r="517" spans="1:9">
       <c r="A517">
-        <v>48.31603775390479</v>
+        <v>48.31604163533362</v>
       </c>
       <c r="B517">
-        <v>48.31603775390479</v>
+        <v>48.31604163533362</v>
       </c>
       <c r="C517">
-        <v>47.16286338339233</v>
+        <v>47.16286717218185</v>
       </c>
       <c r="D517">
-        <v>47.4853630065918</v>
+        <v>47.48536682128906</v>
       </c>
       <c r="E517">
         <v>15443800</v>
@@ -15467,16 +15467,16 @@
     </row>
     <row r="520" spans="1:9">
       <c r="A520">
-        <v>47.98377581959469</v>
+        <v>47.98377195451766</v>
       </c>
       <c r="B520">
-        <v>48.05218416518061</v>
+        <v>48.0521802945933</v>
       </c>
       <c r="C520">
-        <v>47.33878018408808</v>
+        <v>47.33877637096523</v>
       </c>
       <c r="D520">
-        <v>47.35832595825195</v>
+        <v>47.35832214355469</v>
       </c>
       <c r="E520">
         <v>14303200</v>
@@ -15612,16 +15612,16 @@
     </row>
     <row r="525" spans="1:9">
       <c r="A525">
-        <v>46.33219078042321</v>
+        <v>46.33219456320488</v>
       </c>
       <c r="B525">
-        <v>46.90877799236502</v>
+        <v>46.90878182222202</v>
       </c>
       <c r="C525">
-        <v>46.00969487027256</v>
+        <v>46.00969862672412</v>
       </c>
       <c r="D525">
-        <v>46.72309875488281</v>
+        <v>46.72310256958008</v>
       </c>
       <c r="E525">
         <v>66125400</v>
@@ -15670,16 +15670,16 @@
     </row>
     <row r="527" spans="1:9">
       <c r="A527">
-        <v>46.33219381000133</v>
+        <v>46.3321899920828</v>
       </c>
       <c r="B527">
-        <v>46.47878524200271</v>
+        <v>46.47878141200458</v>
       </c>
       <c r="C527">
-        <v>45.72628976514724</v>
+        <v>45.72628599715711</v>
       </c>
       <c r="D527">
-        <v>46.2931022644043</v>
+        <v>46.29309844970703</v>
       </c>
       <c r="E527">
         <v>15086200</v>
@@ -15728,16 +15728,16 @@
     </row>
     <row r="529" spans="1:9">
       <c r="A529">
-        <v>46.41037701232663</v>
+        <v>46.41038084072859</v>
       </c>
       <c r="B529">
-        <v>46.41037701232663</v>
+        <v>46.41038084072859</v>
       </c>
       <c r="C529">
-        <v>45.6285610104138</v>
+        <v>45.6285647743236</v>
       </c>
       <c r="D529">
-        <v>46.24423980712891</v>
+        <v>46.24424362182617</v>
       </c>
       <c r="E529">
         <v>23118500</v>
@@ -15757,16 +15757,16 @@
     </row>
     <row r="530" spans="1:9">
       <c r="A530">
-        <v>46.17582964644875</v>
+        <v>46.1758334426671</v>
       </c>
       <c r="B530">
-        <v>46.41037518337455</v>
+        <v>46.41037899887542</v>
       </c>
       <c r="C530">
-        <v>45.94128410952293</v>
+        <v>45.94128788645877</v>
       </c>
       <c r="D530">
-        <v>46.40060043334961</v>
+        <v>46.40060424804688</v>
       </c>
       <c r="E530">
         <v>9554400</v>
@@ -15815,16 +15815,16 @@
     </row>
     <row r="532" spans="1:9">
       <c r="A532">
-        <v>46.60582775851786</v>
+        <v>46.60582389357398</v>
       </c>
       <c r="B532">
-        <v>46.68401085069377</v>
+        <v>46.68400697926629</v>
       </c>
       <c r="C532">
-        <v>45.9119695913443</v>
+        <v>45.91196578394092</v>
       </c>
       <c r="D532">
-        <v>45.99992370605469</v>
+        <v>45.99991989135742</v>
       </c>
       <c r="E532">
         <v>9847400</v>
@@ -15844,16 +15844,16 @@
     </row>
     <row r="533" spans="1:9">
       <c r="A533">
-        <v>46.18560519691336</v>
+        <v>46.18560140149049</v>
       </c>
       <c r="B533">
-        <v>46.65469631675852</v>
+        <v>46.65469248278686</v>
       </c>
       <c r="C533">
-        <v>46.18560519691336</v>
+        <v>46.18560140149049</v>
       </c>
       <c r="D533">
-        <v>46.42015075683594</v>
+        <v>46.42014694213867</v>
       </c>
       <c r="E533">
         <v>11396500</v>
@@ -15960,16 +15960,16 @@
     </row>
     <row r="537" spans="1:9">
       <c r="A537">
-        <v>46.78119008863307</v>
+        <v>46.78119395296702</v>
       </c>
       <c r="B537">
-        <v>46.78119008863307</v>
+        <v>46.78119395296702</v>
       </c>
       <c r="C537">
-        <v>46.06208239019019</v>
+        <v>46.06208619512265</v>
       </c>
       <c r="D537">
-        <v>46.18029403686523</v>
+        <v>46.1802978515625</v>
       </c>
       <c r="E537">
         <v>17372100</v>
@@ -16105,16 +16105,16 @@
     </row>
     <row r="542" spans="1:9">
       <c r="A542">
-        <v>48.47551862720746</v>
+        <v>48.47551479616158</v>
       </c>
       <c r="B542">
-        <v>48.69223623482002</v>
+        <v>48.69223238664682</v>
       </c>
       <c r="C542">
-        <v>48.12089118120921</v>
+        <v>48.12088737818971</v>
       </c>
       <c r="D542">
-        <v>48.26865386962891</v>
+        <v>48.26865005493164</v>
       </c>
       <c r="E542">
         <v>14241700</v>
@@ -16163,16 +16163,16 @@
     </row>
     <row r="544" spans="1:9">
       <c r="A544">
-        <v>48.18984766807228</v>
+        <v>48.18984378672918</v>
       </c>
       <c r="B544">
-        <v>48.20954961101991</v>
+        <v>48.20954572808997</v>
       </c>
       <c r="C544">
-        <v>47.2343278605609</v>
+        <v>47.234324056178</v>
       </c>
       <c r="D544">
-        <v>47.36238861083984</v>
+        <v>47.36238479614258</v>
       </c>
       <c r="E544">
         <v>19290800</v>
@@ -16192,16 +16192,16 @@
     </row>
     <row r="545" spans="1:9">
       <c r="A545">
-        <v>47.47074023571746</v>
+        <v>47.470744155339</v>
       </c>
       <c r="B545">
-        <v>47.54954800182256</v>
+        <v>47.54955192795119</v>
       </c>
       <c r="C545">
-        <v>46.19014409859849</v>
+        <v>46.19014791248221</v>
       </c>
       <c r="D545">
-        <v>46.19999694824219</v>
+        <v>46.20000076293945</v>
       </c>
       <c r="E545">
         <v>19882200</v>
@@ -16250,16 +16250,16 @@
     </row>
     <row r="547" spans="1:9">
       <c r="A547">
-        <v>45.3725322193875</v>
+        <v>45.37253597537224</v>
       </c>
       <c r="B547">
-        <v>46.13104002523148</v>
+        <v>46.13104384400626</v>
       </c>
       <c r="C547">
-        <v>44.98835001297748</v>
+        <v>44.98835373715921</v>
       </c>
       <c r="D547">
-        <v>46.08178329467773</v>
+        <v>46.081787109375</v>
       </c>
       <c r="E547">
         <v>21847200</v>
@@ -16308,16 +16308,16 @@
     </row>
     <row r="549" spans="1:9">
       <c r="A549">
-        <v>46.78118912292059</v>
+        <v>46.78119291208549</v>
       </c>
       <c r="B549">
-        <v>47.30327739946083</v>
+        <v>47.30328123091365</v>
       </c>
       <c r="C549">
-        <v>46.35760679214836</v>
+        <v>46.35761054700411</v>
       </c>
       <c r="D549">
-        <v>47.09641265869141</v>
+        <v>47.09641647338867</v>
       </c>
       <c r="E549">
         <v>14872700</v>
@@ -16424,16 +16424,16 @@
     </row>
     <row r="553" spans="1:9">
       <c r="A553">
-        <v>47.42148596773322</v>
+        <v>47.42148977610152</v>
       </c>
       <c r="B553">
-        <v>47.77611339001426</v>
+        <v>47.7761172268623</v>
       </c>
       <c r="C553">
-        <v>47.40178402674416</v>
+        <v>47.40178783353021</v>
       </c>
       <c r="D553">
-        <v>47.50029373168945</v>
+        <v>47.50029754638672</v>
       </c>
       <c r="E553">
         <v>19261900</v>
@@ -16511,16 +16511,16 @@
     </row>
     <row r="556" spans="1:9">
       <c r="A556">
-        <v>47.80566399657144</v>
+        <v>47.80566775016542</v>
       </c>
       <c r="B556">
-        <v>48.82029328078001</v>
+        <v>48.82029711404041</v>
       </c>
       <c r="C556">
-        <v>47.63820313629837</v>
+        <v>47.63820687674369</v>
       </c>
       <c r="D556">
-        <v>48.5838737487793</v>
+        <v>48.58387756347656</v>
       </c>
       <c r="E556">
         <v>17883800</v>
@@ -16540,16 +16540,16 @@
     </row>
     <row r="557" spans="1:9">
       <c r="A557">
-        <v>48.56417679447962</v>
+        <v>48.5641729272255</v>
       </c>
       <c r="B557">
-        <v>48.56417679447962</v>
+        <v>48.5641729272255</v>
       </c>
       <c r="C557">
-        <v>47.78596696236608</v>
+        <v>47.78596315708223</v>
       </c>
       <c r="D557">
-        <v>47.90417861938477</v>
+        <v>47.9041748046875</v>
       </c>
       <c r="E557">
         <v>17980000</v>
@@ -16685,16 +16685,16 @@
     </row>
     <row r="562" spans="1:9">
       <c r="A562">
-        <v>46.00297952493246</v>
+        <v>46.00298329442825</v>
       </c>
       <c r="B562">
-        <v>46.61372465775929</v>
+        <v>46.6137284772997</v>
       </c>
       <c r="C562">
-        <v>45.94387370262238</v>
+        <v>45.94387746727504</v>
       </c>
       <c r="D562">
-        <v>46.55461883544922</v>
+        <v>46.55462265014648</v>
       </c>
       <c r="E562">
         <v>17397300</v>
@@ -16772,16 +16772,16 @@
     </row>
     <row r="565" spans="1:9">
       <c r="A565">
-        <v>46.79104226424679</v>
+        <v>46.79103852434757</v>
       </c>
       <c r="B565">
-        <v>47.79581878064197</v>
+        <v>47.7958149604333</v>
       </c>
       <c r="C565">
-        <v>46.6235813903949</v>
+        <v>46.62357766388044</v>
       </c>
       <c r="D565">
-        <v>47.72686386108398</v>
+        <v>47.72686004638672</v>
       </c>
       <c r="E565">
         <v>27071200</v>
@@ -16830,16 +16830,16 @@
     </row>
     <row r="567" spans="1:9">
       <c r="A567">
-        <v>50.56388067382671</v>
+        <v>50.56387681705271</v>
       </c>
       <c r="B567">
-        <v>50.67223572256162</v>
+        <v>50.67223185752282</v>
       </c>
       <c r="C567">
-        <v>49.84477291394442</v>
+        <v>49.84476911202057</v>
       </c>
       <c r="D567">
-        <v>50.01223754882812</v>
+        <v>50.01223373413086</v>
       </c>
       <c r="E567">
         <v>25321400</v>
@@ -16888,16 +16888,16 @@
     </row>
     <row r="569" spans="1:9">
       <c r="A569">
-        <v>49.10596542282904</v>
+        <v>49.10596156635677</v>
       </c>
       <c r="B569">
-        <v>49.10596542282904</v>
+        <v>49.10596156635677</v>
       </c>
       <c r="C569">
-        <v>48.16029474497466</v>
+        <v>48.16029096276939</v>
       </c>
       <c r="D569">
-        <v>48.57402801513672</v>
+        <v>48.57402420043945</v>
       </c>
       <c r="E569">
         <v>20301900</v>
@@ -17178,16 +17178,16 @@
     </row>
     <row r="579" spans="1:9">
       <c r="A579">
-        <v>48.28835729593208</v>
+        <v>48.28835348822572</v>
       </c>
       <c r="B579">
-        <v>48.53462594569238</v>
+        <v>48.53462211856688</v>
       </c>
       <c r="C579">
-        <v>48.01253761068418</v>
+        <v>48.01253382472717</v>
       </c>
       <c r="D579">
-        <v>48.37701416015625</v>
+        <v>48.37701034545898</v>
       </c>
       <c r="E579">
         <v>12055500</v>
@@ -17236,16 +17236,16 @@
     </row>
     <row r="581" spans="1:9">
       <c r="A581">
-        <v>48.16029681708959</v>
+        <v>48.16029297646889</v>
       </c>
       <c r="B581">
-        <v>48.43611650389073</v>
+        <v>48.43611264127433</v>
       </c>
       <c r="C581">
-        <v>47.57910265007193</v>
+        <v>47.57909885579949</v>
       </c>
       <c r="D581">
-        <v>47.83522415161133</v>
+        <v>47.83522033691406</v>
       </c>
       <c r="E581">
         <v>16338200</v>
@@ -17352,16 +17352,16 @@
     </row>
     <row r="585" spans="1:9">
       <c r="A585">
-        <v>47.95343075854366</v>
+        <v>47.95342705344653</v>
       </c>
       <c r="B585">
-        <v>49.53940143039466</v>
+        <v>49.53939760275832</v>
       </c>
       <c r="C585">
-        <v>47.7859661262447</v>
+        <v>47.78596243408663</v>
       </c>
       <c r="D585">
-        <v>49.3719367980957</v>
+        <v>49.37193298339844</v>
       </c>
       <c r="E585">
         <v>21425100</v>
@@ -17439,16 +17439,16 @@
     </row>
     <row r="588" spans="1:9">
       <c r="A588">
-        <v>50.44566797788556</v>
+        <v>50.44566412253427</v>
       </c>
       <c r="B588">
-        <v>50.56387963222529</v>
+        <v>50.56387576783957</v>
       </c>
       <c r="C588">
-        <v>49.57880505929523</v>
+        <v>49.57880127019464</v>
       </c>
       <c r="D588">
-        <v>49.91372680664062</v>
+        <v>49.91372299194336</v>
       </c>
       <c r="E588">
         <v>23334000</v>
@@ -17497,16 +17497,16 @@
     </row>
     <row r="590" spans="1:9">
       <c r="A590">
-        <v>48.82029395917728</v>
+        <v>48.82029776083429</v>
       </c>
       <c r="B590">
-        <v>49.49999401676273</v>
+        <v>49.49999787134828</v>
       </c>
       <c r="C590">
-        <v>48.67253127990342</v>
+        <v>48.6725350700541</v>
       </c>
       <c r="D590">
-        <v>48.98775482177734</v>
+        <v>48.98775863647461</v>
       </c>
       <c r="E590">
         <v>17775400</v>
@@ -17526,16 +17526,16 @@
     </row>
     <row r="591" spans="1:9">
       <c r="A591">
-        <v>49.15522262754075</v>
+        <v>49.15521885891265</v>
       </c>
       <c r="B591">
-        <v>49.79551884444478</v>
+        <v>49.7955150267265</v>
       </c>
       <c r="C591">
-        <v>48.76119129578344</v>
+        <v>48.7611875573649</v>
       </c>
       <c r="D591">
-        <v>49.7561149597168</v>
+        <v>49.75611114501953</v>
       </c>
       <c r="E591">
         <v>19438800</v>
@@ -17555,16 +17555,16 @@
     </row>
     <row r="592" spans="1:9">
       <c r="A592">
-        <v>49.94327919319936</v>
+        <v>49.94328301997321</v>
       </c>
       <c r="B592">
-        <v>50.18954782456843</v>
+        <v>50.18955167021197</v>
       </c>
       <c r="C592">
-        <v>49.72656159511103</v>
+        <v>49.72656540527946</v>
       </c>
       <c r="D592">
-        <v>49.78566741943359</v>
+        <v>49.78567123413086</v>
       </c>
       <c r="E592">
         <v>15857200</v>
